--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-592009.1109851048</v>
+        <v>-594677.407109841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9508688.652655562</v>
+        <v>9508688.652655559</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673447</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>6.876045741711437</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.5205290860685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9406038137835</v>
       </c>
       <c r="H11" t="n">
         <v>294.801100346801</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.30473004905184</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>28.46565162476045</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9966822117284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.8833322497243</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.39461714229199</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0342763518484</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8303039577586</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.60707905574006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31290891630827</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.9166010944994</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5851311273101</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2123001015848</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.8278017838783</v>
+        <v>380.8278017838782</v>
       </c>
       <c r="C14" t="n">
-        <v>363.3668518914052</v>
+        <v>363.3668518914051</v>
       </c>
       <c r="D14" t="n">
-        <v>352.7770017410807</v>
+        <v>352.7770017410805</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>380.0243301926594</v>
       </c>
       <c r="F14" t="n">
-        <v>404.9700058621091</v>
+        <v>404.970005862109</v>
       </c>
       <c r="G14" t="n">
-        <v>396.9658862924092</v>
+        <v>409.0345639341811</v>
       </c>
       <c r="H14" t="n">
-        <v>292.8950604671987</v>
+        <v>292.8950604671986</v>
       </c>
       <c r="I14" t="n">
-        <v>40.39869016944954</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>107.7119079870955</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.0945694068628</v>
+        <v>202.0945694068627</v>
       </c>
       <c r="U14" t="n">
-        <v>249.090642332126</v>
+        <v>42.10520259287858</v>
       </c>
       <c r="V14" t="n">
-        <v>325.8462185905326</v>
+        <v>325.8462185905325</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>347.3349288378106</v>
       </c>
       <c r="X14" t="n">
-        <v>367.8250607988667</v>
+        <v>367.8250607988666</v>
       </c>
       <c r="Y14" t="n">
-        <v>384.3318987764513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.8674374642143</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>165.3407812190255</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.7094331386101</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>144.5279227669669</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>143.5150081433289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.128236472246</v>
       </c>
       <c r="H16" t="n">
-        <v>142.9242640781562</v>
+        <v>142.9242640781561</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>94.70103917613767</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.406869036706</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.0105612148971</v>
+        <v>186.5005166194525</v>
       </c>
       <c r="T16" t="n">
-        <v>217.6790912477078</v>
+        <v>217.6790912477076</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3062602219824</v>
       </c>
       <c r="V16" t="n">
-        <v>250.2316034442257</v>
+        <v>250.2316034442256</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>284.6169584569886</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>223.8036155094347</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.6786134724925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.3756939403953</v>
+        <v>335.3756939403952</v>
       </c>
       <c r="C17" t="n">
-        <v>317.9147440479223</v>
+        <v>317.9147440479222</v>
       </c>
       <c r="D17" t="n">
-        <v>307.3248938975977</v>
+        <v>307.3248938975976</v>
       </c>
       <c r="E17" t="n">
-        <v>334.5722223491765</v>
+        <v>334.5722223491764</v>
       </c>
       <c r="F17" t="n">
-        <v>359.5178980186262</v>
+        <v>359.5178980186261</v>
       </c>
       <c r="G17" t="n">
-        <v>363.5824560906983</v>
+        <v>363.5824560906981</v>
       </c>
       <c r="H17" t="n">
         <v>247.4429526237157</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.25980014361252</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T17" t="n">
         <v>156.6424615633798</v>
       </c>
       <c r="U17" t="n">
-        <v>203.6385344886431</v>
+        <v>203.638534488643</v>
       </c>
       <c r="V17" t="n">
-        <v>217.6943740530191</v>
+        <v>280.3941107470495</v>
       </c>
       <c r="W17" t="n">
-        <v>301.8828209943277</v>
+        <v>301.8828209943276</v>
       </c>
       <c r="X17" t="n">
-        <v>322.3729529553838</v>
+        <v>322.3729529553837</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.8797909329683</v>
+        <v>276.1800542389359</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.473832458852</v>
+        <v>132.4738324588519</v>
       </c>
       <c r="C19" t="n">
         <v>119.8886733755425</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2573252951271</v>
+        <v>101.257325295127</v>
       </c>
       <c r="E19" t="n">
-        <v>99.07581492348388</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F19" t="n">
-        <v>98.06290029984595</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G19" t="n">
-        <v>118.6761286287631</v>
+        <v>118.676128628763</v>
       </c>
       <c r="H19" t="n">
-        <v>97.47215623467326</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I19" t="n">
-        <v>49.2489313326548</v>
+        <v>49.24893133265471</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95476119322301</v>
+        <v>41.95476119322292</v>
       </c>
       <c r="S19" t="n">
-        <v>142.5584533714141</v>
+        <v>142.558453371414</v>
       </c>
       <c r="T19" t="n">
-        <v>172.2269834042248</v>
+        <v>172.2269834042247</v>
       </c>
       <c r="U19" t="n">
-        <v>238.8541523784996</v>
+        <v>238.8541523784995</v>
       </c>
       <c r="V19" t="n">
-        <v>204.7794956007427</v>
+        <v>204.7794956007426</v>
       </c>
       <c r="W19" t="n">
-        <v>239.1648506135057</v>
+        <v>239.1648506135056</v>
       </c>
       <c r="X19" t="n">
-        <v>178.3515076659519</v>
+        <v>178.3515076659518</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.2265056290095</v>
+        <v>171.2265056290094</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>307.3248938975976</v>
       </c>
       <c r="E20" t="n">
-        <v>334.5722223491764</v>
+        <v>271.872485655144</v>
       </c>
       <c r="F20" t="n">
         <v>359.5178980186261</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.25980014361244</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T20" t="n">
         <v>156.6424615633798</v>
@@ -2141,7 +2141,7 @@
         <v>280.3941107470495</v>
       </c>
       <c r="W20" t="n">
-        <v>239.1830843002973</v>
+        <v>301.8828209943276</v>
       </c>
       <c r="X20" t="n">
         <v>322.3729529553837</v>
@@ -2178,7 +2178,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I21" t="n">
-        <v>9.039237078228055</v>
+        <v>9.039237078228069</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>128.3311238300229</v>
+        <v>128.331123830023</v>
       </c>
       <c r="T21" t="n">
-        <v>190.7572832533491</v>
+        <v>190.7572832533492</v>
       </c>
       <c r="U21" t="n">
         <v>225.787832917077</v>
@@ -2251,13 +2251,13 @@
         <v>98.06290029984586</v>
       </c>
       <c r="G22" t="n">
-        <v>118.676128628763</v>
+        <v>118.6761286287631</v>
       </c>
       <c r="H22" t="n">
         <v>97.47215623467318</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24893133265471</v>
+        <v>49.24893133265473</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95476119322292</v>
+        <v>41.95476119322294</v>
       </c>
       <c r="S22" t="n">
         <v>142.558453371414</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.25980014361247</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T23" t="n">
         <v>156.6424615633798</v>
@@ -2482,19 +2482,19 @@
         <v>101.257325295127</v>
       </c>
       <c r="E25" t="n">
-        <v>99.0758149234838</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F25" t="n">
-        <v>98.06290029984588</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G25" t="n">
-        <v>118.6761286287631</v>
+        <v>118.676128628763</v>
       </c>
       <c r="H25" t="n">
-        <v>97.47215623467319</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24893133265473</v>
+        <v>49.24893133265471</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.3756939403953</v>
+        <v>335.3756939403952</v>
       </c>
       <c r="C26" t="n">
         <v>317.9147440479222</v>
@@ -2561,13 +2561,13 @@
         <v>307.3248938975976</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5722223491765</v>
+        <v>334.5722223491764</v>
       </c>
       <c r="F26" t="n">
         <v>359.5178980186261</v>
       </c>
       <c r="G26" t="n">
-        <v>363.5824560906982</v>
+        <v>363.5824560906981</v>
       </c>
       <c r="H26" t="n">
         <v>247.4429526237157</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.25980014361247</v>
+        <v>62.25980014361244</v>
       </c>
       <c r="T26" t="n">
         <v>156.6424615633798</v>
@@ -2612,16 +2612,16 @@
         <v>203.638534488643</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3941107470496</v>
+        <v>280.3941107470495</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8828209943277</v>
+        <v>301.8828209943276</v>
       </c>
       <c r="X26" t="n">
         <v>322.3729529553837</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8797909329683</v>
+        <v>338.8797909329682</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>101.257325295127</v>
       </c>
       <c r="E28" t="n">
-        <v>99.07581492348382</v>
+        <v>99.07581492348379</v>
       </c>
       <c r="F28" t="n">
-        <v>98.06290029984589</v>
+        <v>98.06290029984586</v>
       </c>
       <c r="G28" t="n">
         <v>118.6761286287631</v>
       </c>
       <c r="H28" t="n">
-        <v>97.47215623467321</v>
+        <v>97.47215623467318</v>
       </c>
       <c r="I28" t="n">
-        <v>49.24893133265474</v>
+        <v>49.24893133265471</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95476119322295</v>
+        <v>41.95476119322292</v>
       </c>
       <c r="S28" t="n">
         <v>142.558453371414</v>
@@ -2792,7 +2792,7 @@
         <v>337.2817338199976</v>
       </c>
       <c r="C29" t="n">
-        <v>319.8207839275245</v>
+        <v>319.8207839275246</v>
       </c>
       <c r="D29" t="n">
         <v>309.2309337772</v>
@@ -2807,7 +2807,7 @@
         <v>365.4884959703006</v>
       </c>
       <c r="H29" t="n">
-        <v>249.348992503318</v>
+        <v>249.3489925033181</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.16584002321483</v>
+        <v>64.16584002321486</v>
       </c>
       <c r="T29" t="n">
-        <v>158.5485014429821</v>
+        <v>158.5485014429822</v>
       </c>
       <c r="U29" t="n">
         <v>205.5445743682454</v>
@@ -2950,25 +2950,25 @@
         <v>134.3798723384543</v>
       </c>
       <c r="C31" t="n">
-        <v>121.7947132551448</v>
+        <v>121.7947132551449</v>
       </c>
       <c r="D31" t="n">
-        <v>57.72184961310494</v>
+        <v>103.1633651747294</v>
       </c>
       <c r="E31" t="n">
         <v>100.9818548030862</v>
       </c>
       <c r="F31" t="n">
-        <v>99.96894017944825</v>
+        <v>99.96894017944828</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5821685083654</v>
+        <v>120.5821685083655</v>
       </c>
       <c r="H31" t="n">
-        <v>99.37819611427557</v>
+        <v>99.3781961142756</v>
       </c>
       <c r="I31" t="n">
-        <v>51.1549712122571</v>
+        <v>51.15497121225713</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86080107282531</v>
+        <v>43.86080107282534</v>
       </c>
       <c r="S31" t="n">
         <v>144.4644932510164</v>
@@ -3016,7 +3016,7 @@
         <v>180.2575475455542</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.1325455086118</v>
+        <v>127.6910299469873</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.3756939403952</v>
+        <v>335.3756939403953</v>
       </c>
       <c r="C32" t="n">
         <v>317.9147440479222</v>
@@ -3035,16 +3035,16 @@
         <v>307.3248938975976</v>
       </c>
       <c r="E32" t="n">
-        <v>334.5722223491764</v>
+        <v>334.5722223491765</v>
       </c>
       <c r="F32" t="n">
         <v>359.5178980186261</v>
       </c>
       <c r="G32" t="n">
-        <v>363.5824560906981</v>
+        <v>363.5824560906982</v>
       </c>
       <c r="H32" t="n">
-        <v>247.4429526237156</v>
+        <v>247.4429526237157</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.25980014361244</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T32" t="n">
-        <v>156.6424615633797</v>
+        <v>156.6424615633798</v>
       </c>
       <c r="U32" t="n">
         <v>203.638534488643</v>
       </c>
       <c r="V32" t="n">
-        <v>280.3941107470495</v>
+        <v>280.3941107470496</v>
       </c>
       <c r="W32" t="n">
-        <v>301.8828209943276</v>
+        <v>301.8828209943277</v>
       </c>
       <c r="X32" t="n">
         <v>322.3729529553837</v>
       </c>
       <c r="Y32" t="n">
-        <v>338.8797909329682</v>
+        <v>338.8797909329683</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.69442697629802</v>
       </c>
       <c r="I33" t="n">
-        <v>9.039237078228069</v>
+        <v>9.039237078228055</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>128.331123830023</v>
+        <v>128.3311238300229</v>
       </c>
       <c r="T33" t="n">
-        <v>190.7572832533492</v>
+        <v>190.7572832533491</v>
       </c>
       <c r="U33" t="n">
         <v>225.787832917077</v>
@@ -3187,25 +3187,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C34" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D34" t="n">
-        <v>101.2573252951269</v>
+        <v>101.257325295127</v>
       </c>
       <c r="E34" t="n">
-        <v>99.07581492348376</v>
+        <v>99.07581492348382</v>
       </c>
       <c r="F34" t="n">
-        <v>98.06290029984584</v>
+        <v>98.06290029984589</v>
       </c>
       <c r="G34" t="n">
-        <v>118.676128628763</v>
+        <v>118.6761286287631</v>
       </c>
       <c r="H34" t="n">
-        <v>97.47215623467315</v>
+        <v>97.47215623467321</v>
       </c>
       <c r="I34" t="n">
-        <v>49.2489313326547</v>
+        <v>49.24893133265474</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95476119322291</v>
+        <v>41.95476119322296</v>
       </c>
       <c r="S34" t="n">
         <v>142.558453371414</v>
@@ -3241,7 +3241,7 @@
         <v>172.2269834042247</v>
       </c>
       <c r="U34" t="n">
-        <v>238.8541523784994</v>
+        <v>238.8541523784995</v>
       </c>
       <c r="V34" t="n">
         <v>204.7794956007426</v>
@@ -3250,7 +3250,7 @@
         <v>239.1648506135056</v>
       </c>
       <c r="X34" t="n">
-        <v>178.3515076659517</v>
+        <v>178.3515076659518</v>
       </c>
       <c r="Y34" t="n">
         <v>171.2265056290094</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.25980014361248</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T35" t="n">
         <v>156.6424615633798</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.473832458852</v>
+        <v>132.4738324588519</v>
       </c>
       <c r="C37" t="n">
         <v>119.8886733755425</v>
@@ -3430,19 +3430,19 @@
         <v>101.257325295127</v>
       </c>
       <c r="E37" t="n">
-        <v>99.07581492348383</v>
+        <v>99.07581492348382</v>
       </c>
       <c r="F37" t="n">
-        <v>98.06290029984591</v>
+        <v>98.06290029984589</v>
       </c>
       <c r="G37" t="n">
         <v>118.6761286287631</v>
       </c>
       <c r="H37" t="n">
-        <v>97.47215623467322</v>
+        <v>97.47215623467321</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24893133265475</v>
+        <v>49.24893133265474</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95476119322296</v>
+        <v>41.95476119322295</v>
       </c>
       <c r="S37" t="n">
         <v>142.558453371414</v>
@@ -3481,16 +3481,16 @@
         <v>238.8541523784995</v>
       </c>
       <c r="V37" t="n">
-        <v>204.7794956007427</v>
+        <v>204.7794956007426</v>
       </c>
       <c r="W37" t="n">
-        <v>239.1648506135057</v>
+        <v>239.1648506135056</v>
       </c>
       <c r="X37" t="n">
         <v>178.3515076659518</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.2265056290095</v>
+        <v>171.2265056290094</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.4738324588519</v>
+        <v>132.473832458852</v>
       </c>
       <c r="C40" t="n">
         <v>119.8886733755425</v>
@@ -3667,19 +3667,19 @@
         <v>101.257325295127</v>
       </c>
       <c r="E40" t="n">
-        <v>99.07581492348382</v>
+        <v>99.07581492348383</v>
       </c>
       <c r="F40" t="n">
-        <v>98.06290029984589</v>
+        <v>98.06290029984591</v>
       </c>
       <c r="G40" t="n">
         <v>118.6761286287631</v>
       </c>
       <c r="H40" t="n">
-        <v>97.47215623467321</v>
+        <v>97.47215623467322</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24893133265474</v>
+        <v>49.24893133265476</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95476119322296</v>
+        <v>41.95476119322298</v>
       </c>
       <c r="S40" t="n">
         <v>142.558453371414</v>
@@ -3718,16 +3718,16 @@
         <v>238.8541523784995</v>
       </c>
       <c r="V40" t="n">
-        <v>204.7794956007426</v>
+        <v>204.7794956007427</v>
       </c>
       <c r="W40" t="n">
-        <v>239.1648506135056</v>
+        <v>239.1648506135057</v>
       </c>
       <c r="X40" t="n">
         <v>178.3515076659518</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.2265056290094</v>
+        <v>171.2265056290095</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.25980014361249</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T41" t="n">
         <v>156.6424615633798</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.473832458852</v>
+        <v>132.4738324588519</v>
       </c>
       <c r="C43" t="n">
         <v>119.8886733755425</v>
@@ -3904,19 +3904,19 @@
         <v>101.257325295127</v>
       </c>
       <c r="E43" t="n">
-        <v>99.07581492348385</v>
+        <v>99.07581492348382</v>
       </c>
       <c r="F43" t="n">
-        <v>98.06290029984592</v>
+        <v>98.06290029984589</v>
       </c>
       <c r="G43" t="n">
         <v>118.6761286287631</v>
       </c>
       <c r="H43" t="n">
-        <v>97.47215623467324</v>
+        <v>97.47215623467321</v>
       </c>
       <c r="I43" t="n">
-        <v>49.24893133265476</v>
+        <v>49.24893133265474</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95476119322297</v>
+        <v>41.95476119322295</v>
       </c>
       <c r="S43" t="n">
         <v>142.558453371414</v>
@@ -3955,16 +3955,16 @@
         <v>238.8541523784995</v>
       </c>
       <c r="V43" t="n">
-        <v>204.7794956007427</v>
+        <v>204.7794956007426</v>
       </c>
       <c r="W43" t="n">
-        <v>239.1648506135057</v>
+        <v>239.1648506135056</v>
       </c>
       <c r="X43" t="n">
         <v>178.3515076659518</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.2265056290095</v>
+        <v>171.2265056290094</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.3756939403952</v>
+        <v>335.3756939403953</v>
       </c>
       <c r="C44" t="n">
         <v>317.9147440479222</v>
@@ -3983,13 +3983,13 @@
         <v>307.3248938975976</v>
       </c>
       <c r="E44" t="n">
-        <v>334.5722223491764</v>
+        <v>334.5722223491765</v>
       </c>
       <c r="F44" t="n">
         <v>359.5178980186261</v>
       </c>
       <c r="G44" t="n">
-        <v>363.5824560906981</v>
+        <v>363.5824560906982</v>
       </c>
       <c r="H44" t="n">
         <v>247.4429526237157</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.25980014361241</v>
+        <v>62.25980014361247</v>
       </c>
       <c r="T44" t="n">
         <v>156.6424615633798</v>
@@ -4034,16 +4034,16 @@
         <v>203.638534488643</v>
       </c>
       <c r="V44" t="n">
-        <v>280.3941107470495</v>
+        <v>280.3941107470496</v>
       </c>
       <c r="W44" t="n">
-        <v>301.8828209943276</v>
+        <v>301.8828209943277</v>
       </c>
       <c r="X44" t="n">
         <v>322.3729529553837</v>
       </c>
       <c r="Y44" t="n">
-        <v>338.8797909329682</v>
+        <v>338.8797909329683</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>132.4738324588519</v>
       </c>
       <c r="C46" t="n">
-        <v>119.8886733755424</v>
+        <v>119.8886733755425</v>
       </c>
       <c r="D46" t="n">
         <v>101.257325295127</v>
       </c>
       <c r="E46" t="n">
-        <v>99.07581492348378</v>
+        <v>99.07581492348382</v>
       </c>
       <c r="F46" t="n">
-        <v>98.06290029984585</v>
+        <v>98.06290029984589</v>
       </c>
       <c r="G46" t="n">
-        <v>118.676128628763</v>
+        <v>118.6761286287631</v>
       </c>
       <c r="H46" t="n">
-        <v>97.47215623467316</v>
+        <v>97.47215623467321</v>
       </c>
       <c r="I46" t="n">
-        <v>49.2489313326547</v>
+        <v>49.24893133265474</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95476119322292</v>
+        <v>41.95476119322295</v>
       </c>
       <c r="S46" t="n">
         <v>142.558453371414</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
         <v>7.495584408540386</v>
@@ -4805,19 +4805,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
-        <v>20.97193951221988</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4844,10 +4844,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="X8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50418296684575</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D9" t="n">
-        <v>27.50418296684575</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E9" t="n">
-        <v>27.50418296684575</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G9" t="n">
-        <v>13.6131814684388</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H9" t="n">
-        <v>6.667680719235332</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4884,19 +4884,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N9" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="H10" t="n">
         <v>14.44108515774386</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>21.38658590694733</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1476.847103404366</v>
+        <v>1576.404974356035</v>
       </c>
       <c r="C11" t="n">
-        <v>1107.884586463954</v>
+        <v>1207.442457415624</v>
       </c>
       <c r="D11" t="n">
-        <v>749.6188878572038</v>
+        <v>1207.442457415624</v>
       </c>
       <c r="E11" t="n">
-        <v>363.8306352589599</v>
+        <v>821.6542048173794</v>
       </c>
       <c r="F11" t="n">
-        <v>363.8306352589599</v>
+        <v>821.6542048173794</v>
       </c>
       <c r="G11" t="n">
-        <v>363.8306352589599</v>
+        <v>406.5626858135577</v>
       </c>
       <c r="H11" t="n">
-        <v>66.05174601976692</v>
+        <v>108.7837965743648</v>
       </c>
       <c r="I11" t="n">
-        <v>66.05174601976692</v>
+        <v>66.05174601976694</v>
       </c>
       <c r="J11" t="n">
-        <v>253.3446393210794</v>
+        <v>253.3446393210793</v>
       </c>
       <c r="K11" t="n">
         <v>584.7866539517076</v>
@@ -5054,37 +5054,37 @@
         <v>2106.565780855366</v>
       </c>
       <c r="O11" t="n">
-        <v>2606.389301674749</v>
+        <v>2606.38930167475</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.476112009291</v>
+        <v>2998.476112009292</v>
       </c>
       <c r="Q11" t="n">
-        <v>3244.744231117991</v>
+        <v>3244.744231117992</v>
       </c>
       <c r="R11" t="n">
-        <v>3302.587300988346</v>
+        <v>3302.587300988347</v>
       </c>
       <c r="S11" t="n">
-        <v>3302.587300988346</v>
+        <v>3302.587300988347</v>
       </c>
       <c r="T11" t="n">
-        <v>3302.587300988346</v>
+        <v>3273.834117528993</v>
       </c>
       <c r="U11" t="n">
-        <v>3302.587300988346</v>
+        <v>3020.302115294924</v>
       </c>
       <c r="V11" t="n">
-        <v>2971.524413644775</v>
+        <v>2689.239227951353</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.755758374661</v>
+        <v>2336.470572681239</v>
       </c>
       <c r="X11" t="n">
-        <v>2245.290000113581</v>
+        <v>1963.004814420157</v>
       </c>
       <c r="Y11" t="n">
-        <v>1855.15066813777</v>
+        <v>1963.004814420157</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>165.7827198122175</v>
       </c>
       <c r="H12" t="n">
-        <v>75.18228852302758</v>
+        <v>75.18228852302759</v>
       </c>
       <c r="I12" t="n">
-        <v>66.05174601976692</v>
+        <v>66.05174601976694</v>
       </c>
       <c r="J12" t="n">
-        <v>164.5334885433455</v>
+        <v>158.7842632282662</v>
       </c>
       <c r="K12" t="n">
-        <v>401.1829553956234</v>
+        <v>395.4337300805441</v>
       </c>
       <c r="L12" t="n">
-        <v>765.7099090917782</v>
+        <v>759.9606837766989</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.452538601826</v>
+        <v>1204.703313286747</v>
       </c>
       <c r="N12" t="n">
         <v>1681.374827057756</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604.7309315581497</v>
+        <v>444.7010956568474</v>
       </c>
       <c r="C13" t="n">
-        <v>604.7309315581497</v>
+        <v>444.7010956568474</v>
       </c>
       <c r="D13" t="n">
-        <v>604.7309315581497</v>
+        <v>381.6762298565524</v>
       </c>
       <c r="E13" t="n">
-        <v>456.8178379757566</v>
+        <v>233.7631362741593</v>
       </c>
       <c r="F13" t="n">
-        <v>309.9278904778463</v>
+        <v>233.7631362741593</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9278904778463</v>
+        <v>66.05174601976694</v>
       </c>
       <c r="H13" t="n">
-        <v>163.6346541568781</v>
+        <v>66.05174601976694</v>
       </c>
       <c r="I13" t="n">
-        <v>66.05174601976692</v>
+        <v>66.05174601976694</v>
       </c>
       <c r="J13" t="n">
-        <v>110.581671245938</v>
+        <v>110.5816712459382</v>
       </c>
       <c r="K13" t="n">
-        <v>313.594854158635</v>
+        <v>313.5948541586353</v>
       </c>
       <c r="L13" t="n">
-        <v>628.9082678972974</v>
+        <v>628.9082678972975</v>
       </c>
       <c r="M13" t="n">
-        <v>971.751175576358</v>
+        <v>971.7511755763582</v>
       </c>
       <c r="N13" t="n">
         <v>1311.876661624241</v>
@@ -5221,28 +5221,28 @@
         <v>1918.523167977691</v>
       </c>
       <c r="R13" t="n">
-        <v>1828.308108466269</v>
+        <v>1918.523167977691</v>
       </c>
       <c r="S13" t="n">
-        <v>1828.308108466269</v>
+        <v>1726.688217377187</v>
       </c>
       <c r="T13" t="n">
-        <v>1606.50494571141</v>
+        <v>1726.688217377187</v>
       </c>
       <c r="U13" t="n">
-        <v>1317.401612275466</v>
+        <v>1437.584883941242</v>
       </c>
       <c r="V13" t="n">
-        <v>1062.717124069579</v>
+        <v>1182.900395735355</v>
       </c>
       <c r="W13" t="n">
-        <v>773.2999540326186</v>
+        <v>893.4832256983948</v>
       </c>
       <c r="X13" t="n">
-        <v>773.2999540326186</v>
+        <v>665.4936748003774</v>
       </c>
       <c r="Y13" t="n">
-        <v>773.2999540326186</v>
+        <v>444.7010956568474</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1949.833084330209</v>
+        <v>2305.079869850392</v>
       </c>
       <c r="C14" t="n">
-        <v>1582.795860197477</v>
+        <v>1938.04264571766</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.455454398405</v>
+        <v>1581.702239918588</v>
       </c>
       <c r="E14" t="n">
-        <v>1226.455454398405</v>
+        <v>1197.839280128023</v>
       </c>
       <c r="F14" t="n">
-        <v>817.3948424164765</v>
+        <v>788.778668146095</v>
       </c>
       <c r="G14" t="n">
-        <v>416.4191996968713</v>
+        <v>375.6124419499525</v>
       </c>
       <c r="H14" t="n">
-        <v>120.5656032653575</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="I14" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J14" t="n">
         <v>434.4573878401042</v>
       </c>
       <c r="K14" t="n">
-        <v>791.5977708061027</v>
+        <v>765.8994024707324</v>
       </c>
       <c r="L14" t="n">
-        <v>1653.167262326029</v>
+        <v>1213.984291585713</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.417475625593</v>
+        <v>1744.234504885277</v>
       </c>
       <c r="N14" t="n">
-        <v>2726.861500114707</v>
+        <v>2287.678529374391</v>
       </c>
       <c r="O14" t="n">
-        <v>3226.68502093409</v>
+        <v>2787.502050193774</v>
       </c>
       <c r="P14" t="n">
-        <v>3618.771831268632</v>
+        <v>3408.579990515324</v>
       </c>
       <c r="Q14" t="n">
-        <v>3865.039950377331</v>
+        <v>3865.039950377329</v>
       </c>
       <c r="R14" t="n">
-        <v>3987.94227592194</v>
+        <v>3987.942275921937</v>
       </c>
       <c r="S14" t="n">
-        <v>3879.142368864268</v>
+        <v>3987.942275921937</v>
       </c>
       <c r="T14" t="n">
-        <v>3675.006440170467</v>
+        <v>3783.806347228136</v>
       </c>
       <c r="U14" t="n">
-        <v>3423.399730744077</v>
+        <v>3741.275839558562</v>
       </c>
       <c r="V14" t="n">
-        <v>3094.262136208185</v>
+        <v>3412.13824502267</v>
       </c>
       <c r="W14" t="n">
-        <v>3094.262136208185</v>
+        <v>3061.294882560235</v>
       </c>
       <c r="X14" t="n">
-        <v>2722.721670754785</v>
+        <v>2689.754417106835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2334.507631586652</v>
+        <v>2689.754417106835</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>315.863122211863</v>
       </c>
       <c r="G15" t="n">
-        <v>179.4898193108894</v>
+        <v>179.4898193108893</v>
       </c>
       <c r="H15" t="n">
-        <v>88.88938802169945</v>
+        <v>88.8893880216994</v>
       </c>
       <c r="I15" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J15" t="n">
-        <v>178.2405880420175</v>
+        <v>172.491362726938</v>
       </c>
       <c r="K15" t="n">
-        <v>414.8900548942954</v>
+        <v>409.140829579216</v>
       </c>
       <c r="L15" t="n">
-        <v>779.4170085904502</v>
+        <v>773.6677832753708</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.159638100498</v>
+        <v>1218.410412785419</v>
       </c>
       <c r="N15" t="n">
-        <v>1695.081926556428</v>
+        <v>1689.332701241349</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.664023158084</v>
+        <v>2097.914797843004</v>
       </c>
       <c r="P15" t="n">
-        <v>2412.254110671564</v>
+        <v>2406.504885356484</v>
       </c>
       <c r="Q15" t="n">
         <v>2568.619215487805</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>830.2814812215574</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="C16" t="n">
-        <v>663.2705911013296</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="D16" t="n">
-        <v>515.079244496673</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="E16" t="n">
-        <v>369.0914437219591</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="F16" t="n">
-        <v>224.1267890317279</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="G16" t="n">
-        <v>224.1267890317279</v>
+        <v>319.7844043611598</v>
       </c>
       <c r="H16" t="n">
-        <v>79.75884551843879</v>
+        <v>175.4164608478707</v>
       </c>
       <c r="I16" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J16" t="n">
-        <v>126.1757502254163</v>
+        <v>126.1757502254165</v>
       </c>
       <c r="K16" t="n">
-        <v>331.0759126189196</v>
+        <v>331.0759126189199</v>
       </c>
       <c r="L16" t="n">
-        <v>648.2763058383881</v>
+        <v>648.2763058383886</v>
       </c>
       <c r="M16" t="n">
-        <v>993.0061929982554</v>
+        <v>993.0061929982552</v>
       </c>
       <c r="N16" t="n">
         <v>1335.018658526945</v>
@@ -5458,28 +5458,28 @@
         <v>1947.326103322814</v>
       </c>
       <c r="R16" t="n">
-        <v>1859.03633661907</v>
+        <v>1947.326103322814</v>
       </c>
       <c r="S16" t="n">
-        <v>1669.126678826245</v>
+        <v>1758.941743101145</v>
       </c>
       <c r="T16" t="n">
-        <v>1449.248808879065</v>
+        <v>1539.063873153965</v>
       </c>
       <c r="U16" t="n">
-        <v>1449.248808879065</v>
+        <v>1251.8858325257</v>
       </c>
       <c r="V16" t="n">
-        <v>1196.489613480857</v>
+        <v>999.1266371274925</v>
       </c>
       <c r="W16" t="n">
-        <v>1196.489613480857</v>
+        <v>711.6347598982111</v>
       </c>
       <c r="X16" t="n">
-        <v>1196.489613480857</v>
+        <v>485.5705018078729</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.6223271450062</v>
+        <v>485.5705018078729</v>
       </c>
     </row>
     <row r="17">
@@ -5501,61 +5501,61 @@
         <v>1060.105619996257</v>
       </c>
       <c r="F17" t="n">
-        <v>696.9562280582509</v>
+        <v>696.9562280582506</v>
       </c>
       <c r="G17" t="n">
-        <v>329.7012219060305</v>
+        <v>329.7012219060304</v>
       </c>
       <c r="H17" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="I17" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J17" t="n">
-        <v>267.0517388197512</v>
+        <v>434.4573878401042</v>
       </c>
       <c r="K17" t="n">
-        <v>598.4937534503795</v>
+        <v>765.8994024707324</v>
       </c>
       <c r="L17" t="n">
-        <v>1046.57864256536</v>
+        <v>1213.984291585713</v>
       </c>
       <c r="M17" t="n">
-        <v>1576.828855864924</v>
+        <v>1744.234504885277</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.272880354038</v>
+        <v>2287.678529374391</v>
       </c>
       <c r="O17" t="n">
-        <v>2697.912459091016</v>
+        <v>2787.502050193774</v>
       </c>
       <c r="P17" t="n">
-        <v>3408.579990515326</v>
+        <v>3408.579990515324</v>
       </c>
       <c r="Q17" t="n">
-        <v>3865.039950377331</v>
+        <v>3865.039950377329</v>
       </c>
       <c r="R17" t="n">
-        <v>3987.94227592194</v>
+        <v>3987.942275921937</v>
       </c>
       <c r="S17" t="n">
-        <v>3925.05358890819</v>
+        <v>3925.053588908187</v>
       </c>
       <c r="T17" t="n">
-        <v>3766.828880258311</v>
+        <v>3766.828880258308</v>
       </c>
       <c r="U17" t="n">
-        <v>3561.133390875843</v>
+        <v>3561.133390875841</v>
       </c>
       <c r="V17" t="n">
-        <v>3341.240083751582</v>
+        <v>3277.907016383871</v>
       </c>
       <c r="W17" t="n">
-        <v>3036.307941333069</v>
+        <v>2972.974873965359</v>
       </c>
       <c r="X17" t="n">
-        <v>2710.67869592359</v>
+        <v>2647.34562855588</v>
       </c>
       <c r="Y17" t="n">
         <v>2368.37587679938</v>
@@ -5583,19 +5583,19 @@
         <v>315.863122211863</v>
       </c>
       <c r="G18" t="n">
-        <v>179.4898193108894</v>
+        <v>179.4898193108893</v>
       </c>
       <c r="H18" t="n">
-        <v>88.88938802169945</v>
+        <v>88.8893880216994</v>
       </c>
       <c r="I18" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J18" t="n">
-        <v>178.2405880420175</v>
+        <v>172.491362726938</v>
       </c>
       <c r="K18" t="n">
-        <v>414.8900548942954</v>
+        <v>409.140829579216</v>
       </c>
       <c r="L18" t="n">
         <v>779.4170085904502</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.3466536902475</v>
+        <v>770.3466536902469</v>
       </c>
       <c r="C19" t="n">
-        <v>649.2469836139419</v>
+        <v>649.2469836139413</v>
       </c>
       <c r="D19" t="n">
-        <v>546.9668570532075</v>
+        <v>546.966857053207</v>
       </c>
       <c r="E19" t="n">
-        <v>446.8902763224157</v>
+        <v>446.8902763224153</v>
       </c>
       <c r="F19" t="n">
-        <v>347.8368416761067</v>
+        <v>347.8368416761064</v>
       </c>
       <c r="G19" t="n">
-        <v>227.9619642733156</v>
+        <v>227.9619642733154</v>
       </c>
       <c r="H19" t="n">
-        <v>129.5052408039487</v>
+        <v>129.5052408039486</v>
       </c>
       <c r="I19" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J19" t="n">
         <v>171.1733369904646</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0710861490161</v>
+        <v>421.0710861490162</v>
       </c>
       <c r="L19" t="n">
-        <v>783.2690661335328</v>
+        <v>783.269066133533</v>
       </c>
       <c r="M19" t="n">
         <v>1172.996540058448</v>
       </c>
       <c r="N19" t="n">
-        <v>1560.006592352185</v>
+        <v>1560.006592352186</v>
       </c>
       <c r="O19" t="n">
         <v>1905.035800353937</v>
@@ -5692,31 +5692,31 @@
         <v>2183.513931471532</v>
       </c>
       <c r="Q19" t="n">
-        <v>2307.3067974432</v>
+        <v>2307.306797443199</v>
       </c>
       <c r="R19" t="n">
-        <v>2264.928250783379</v>
+        <v>2264.928250783378</v>
       </c>
       <c r="S19" t="n">
-        <v>2120.929813034476</v>
+        <v>2120.929813034475</v>
       </c>
       <c r="T19" t="n">
-        <v>1946.963163131219</v>
+        <v>1946.963163131218</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.696342546876</v>
+        <v>1705.696342546875</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.84836719259</v>
+        <v>1498.848367192589</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.267710007231</v>
+        <v>1257.26771000723</v>
       </c>
       <c r="X19" t="n">
-        <v>1077.114671960815</v>
+        <v>1077.114671960814</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.1586056688859</v>
+        <v>904.1586056688852</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2029.612549586859</v>
+        <v>1966.27948221915</v>
       </c>
       <c r="C20" t="n">
-        <v>1708.486545498049</v>
+        <v>1645.153478130339</v>
       </c>
       <c r="D20" t="n">
-        <v>1398.0573597429</v>
+        <v>1334.72429237519</v>
       </c>
       <c r="E20" t="n">
         <v>1060.105619996257</v>
@@ -5744,58 +5744,58 @@
         <v>329.7012219060304</v>
       </c>
       <c r="H20" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="I20" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J20" t="n">
-        <v>434.4573878401042</v>
+        <v>434.457387840104</v>
       </c>
       <c r="K20" t="n">
-        <v>886.5016521212808</v>
+        <v>1086.803360916185</v>
       </c>
       <c r="L20" t="n">
-        <v>1334.586541236261</v>
+        <v>1718.226518000279</v>
       </c>
       <c r="M20" t="n">
-        <v>1864.836754535825</v>
+        <v>2248.476731299843</v>
       </c>
       <c r="N20" t="n">
-        <v>2408.280779024939</v>
+        <v>2791.920755788957</v>
       </c>
       <c r="O20" t="n">
-        <v>2908.104299844322</v>
+        <v>3291.74427660834</v>
       </c>
       <c r="P20" t="n">
-        <v>3618.771831268632</v>
+        <v>3683.831086942882</v>
       </c>
       <c r="Q20" t="n">
-        <v>3865.039950377331</v>
+        <v>3930.099206051581</v>
       </c>
       <c r="R20" t="n">
-        <v>3987.94227592194</v>
+        <v>3987.942275921937</v>
       </c>
       <c r="S20" t="n">
-        <v>3925.05358890819</v>
+        <v>3925.053588908187</v>
       </c>
       <c r="T20" t="n">
-        <v>3766.828880258311</v>
+        <v>3766.828880258308</v>
       </c>
       <c r="U20" t="n">
-        <v>3561.133390875843</v>
+        <v>3561.133390875841</v>
       </c>
       <c r="V20" t="n">
-        <v>3277.907016383874</v>
+        <v>3277.907016383871</v>
       </c>
       <c r="W20" t="n">
-        <v>3036.307941333068</v>
+        <v>2972.974873965359</v>
       </c>
       <c r="X20" t="n">
-        <v>2710.67869592359</v>
+        <v>2647.34562855588</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.37587679938</v>
+        <v>2305.04280943167</v>
       </c>
     </row>
     <row r="21">
@@ -5820,37 +5820,37 @@
         <v>315.863122211863</v>
       </c>
       <c r="G21" t="n">
-        <v>179.4898193108894</v>
+        <v>179.4898193108893</v>
       </c>
       <c r="H21" t="n">
-        <v>88.88938802169945</v>
+        <v>88.88938802169942</v>
       </c>
       <c r="I21" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J21" t="n">
-        <v>172.4913627269381</v>
+        <v>172.491362726938</v>
       </c>
       <c r="K21" t="n">
-        <v>409.140829579216</v>
+        <v>409.1408295792157</v>
       </c>
       <c r="L21" t="n">
-        <v>773.6677832753708</v>
+        <v>773.6677832753704</v>
       </c>
       <c r="M21" t="n">
-        <v>1218.410412785419</v>
+        <v>1218.410412785418</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.081926556428</v>
+        <v>1689.332701241348</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.664023158084</v>
+        <v>2097.914797843004</v>
       </c>
       <c r="P21" t="n">
-        <v>2412.254110671564</v>
+        <v>2406.504885356484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2568.619215487805</v>
+        <v>2562.869990172724</v>
       </c>
       <c r="R21" t="n">
         <v>2568.619215487805</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>770.346653690247</v>
+        <v>770.3466536902464</v>
       </c>
       <c r="C22" t="n">
-        <v>649.2469836139414</v>
+        <v>649.2469836139409</v>
       </c>
       <c r="D22" t="n">
-        <v>546.9668570532071</v>
+        <v>546.9668570532066</v>
       </c>
       <c r="E22" t="n">
-        <v>446.8902763224154</v>
+        <v>446.8902763224148</v>
       </c>
       <c r="F22" t="n">
-        <v>347.8368416761064</v>
+        <v>347.8368416761058</v>
       </c>
       <c r="G22" t="n">
-        <v>227.9619642733155</v>
+        <v>227.9619642733149</v>
       </c>
       <c r="H22" t="n">
-        <v>129.5052408039486</v>
+        <v>129.505240803948</v>
       </c>
       <c r="I22" t="n">
-        <v>79.75884551843879</v>
+        <v>79.75884551843875</v>
       </c>
       <c r="J22" t="n">
-        <v>171.1733369904647</v>
+        <v>171.1733369904645</v>
       </c>
       <c r="K22" t="n">
-        <v>421.0710861490163</v>
+        <v>421.0710861490161</v>
       </c>
       <c r="L22" t="n">
         <v>783.269066133533</v>
@@ -5926,22 +5926,22 @@
         <v>1905.035800353937</v>
       </c>
       <c r="P22" t="n">
-        <v>2183.513931471532</v>
+        <v>2183.513931471531</v>
       </c>
       <c r="Q22" t="n">
-        <v>2307.306797443199</v>
+        <v>2307.306797443198</v>
       </c>
       <c r="R22" t="n">
-        <v>2264.928250783378</v>
+        <v>2264.928250783377</v>
       </c>
       <c r="S22" t="n">
-        <v>2120.929813034475</v>
+        <v>2120.929813034474</v>
       </c>
       <c r="T22" t="n">
-        <v>1946.963163131218</v>
+        <v>1946.963163131217</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.696342546875</v>
+        <v>1705.696342546874</v>
       </c>
       <c r="V22" t="n">
         <v>1498.848367192589</v>
@@ -5950,10 +5950,10 @@
         <v>1257.26771000723</v>
       </c>
       <c r="X22" t="n">
-        <v>1077.114671960814</v>
+        <v>1077.114671960813</v>
       </c>
       <c r="Y22" t="n">
-        <v>904.1586056688852</v>
+        <v>904.1586056688848</v>
       </c>
     </row>
     <row r="23">
@@ -5966,55 +5966,55 @@
         <v>2030.905061165792</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.779057076982</v>
+        <v>1709.779057076981</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.349871321833</v>
+        <v>1399.349871321832</v>
       </c>
       <c r="E23" t="n">
         <v>1061.39813157519</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2487396371839</v>
+        <v>698.2487396371835</v>
       </c>
       <c r="G23" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H23" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737158</v>
       </c>
       <c r="I23" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737158</v>
       </c>
       <c r="J23" t="n">
         <v>435.749899419037</v>
       </c>
       <c r="K23" t="n">
-        <v>767.1919140496652</v>
+        <v>921.2826054269949</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.276803164646</v>
+        <v>1782.852096946921</v>
       </c>
       <c r="M23" t="n">
-        <v>1745.52701646421</v>
+        <v>2313.102310246485</v>
       </c>
       <c r="N23" t="n">
-        <v>2288.971040953324</v>
+        <v>2856.546334735599</v>
       </c>
       <c r="O23" t="n">
-        <v>2827.597293711909</v>
+        <v>3356.369855554982</v>
       </c>
       <c r="P23" t="n">
-        <v>3538.264825136219</v>
+        <v>3748.456665889524</v>
       </c>
       <c r="Q23" t="n">
         <v>3994.724784998224</v>
       </c>
       <c r="R23" t="n">
-        <v>4052.56785486858</v>
+        <v>4052.567854868579</v>
       </c>
       <c r="S23" t="n">
-        <v>3989.67916785483</v>
+        <v>3989.679167854829</v>
       </c>
       <c r="T23" t="n">
         <v>3831.454459204951</v>
@@ -6029,7 +6029,7 @@
         <v>3037.600452912001</v>
       </c>
       <c r="X23" t="n">
-        <v>2711.971207502523</v>
+        <v>2711.971207502522</v>
       </c>
       <c r="Y23" t="n">
         <v>2369.668388378312</v>
@@ -6060,10 +6060,10 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H24" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063224</v>
       </c>
       <c r="I24" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737158</v>
       </c>
       <c r="J24" t="n">
         <v>173.7838743058709</v>
@@ -6087,7 +6087,7 @@
         <v>2407.797396935418</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.162501751659</v>
+        <v>2569.911727066738</v>
       </c>
       <c r="R24" t="n">
         <v>2569.911727066738</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>771.6391652691802</v>
+        <v>771.6391652691797</v>
       </c>
       <c r="C25" t="n">
-        <v>650.5394951928747</v>
+        <v>650.5394951928741</v>
       </c>
       <c r="D25" t="n">
-        <v>548.2593686321404</v>
+        <v>548.2593686321399</v>
       </c>
       <c r="E25" t="n">
-        <v>448.1827879013487</v>
+        <v>448.1827879013481</v>
       </c>
       <c r="F25" t="n">
-        <v>349.1293532550397</v>
+        <v>349.1293532550392</v>
       </c>
       <c r="G25" t="n">
-        <v>229.2544758522488</v>
+        <v>229.2544758522482</v>
       </c>
       <c r="H25" t="n">
-        <v>130.7977523828819</v>
+        <v>130.7977523828814</v>
       </c>
       <c r="I25" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737158</v>
       </c>
       <c r="J25" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K25" t="n">
         <v>422.363597727949</v>
       </c>
       <c r="L25" t="n">
-        <v>784.5615777124657</v>
+        <v>784.5615777124658</v>
       </c>
       <c r="M25" t="n">
         <v>1174.289051637381</v>
@@ -6163,7 +6163,7 @@
         <v>1906.32831193287</v>
       </c>
       <c r="P25" t="n">
-        <v>2184.806443050465</v>
+        <v>2184.806443050464</v>
       </c>
       <c r="Q25" t="n">
         <v>2308.599309022132</v>
@@ -6190,7 +6190,7 @@
         <v>1078.407183539747</v>
       </c>
       <c r="Y25" t="n">
-        <v>905.4511172478185</v>
+        <v>905.451117247818</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>2030.905061165792</v>
       </c>
       <c r="C26" t="n">
-        <v>1709.779057076981</v>
+        <v>1709.779057076982</v>
       </c>
       <c r="D26" t="n">
-        <v>1399.349871321833</v>
+        <v>1399.349871321832</v>
       </c>
       <c r="E26" t="n">
         <v>1061.39813157519</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2487396371835</v>
+        <v>698.2487396371839</v>
       </c>
       <c r="G26" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J26" t="n">
-        <v>268.344250398684</v>
+        <v>435.749899419037</v>
       </c>
       <c r="K26" t="n">
-        <v>599.7862650293123</v>
+        <v>767.1919140496652</v>
       </c>
       <c r="L26" t="n">
-        <v>1047.871154144293</v>
+        <v>1215.276803164646</v>
       </c>
       <c r="M26" t="n">
-        <v>2023.139765601761</v>
+        <v>2190.545414622114</v>
       </c>
       <c r="N26" t="n">
-        <v>2566.583790090875</v>
+        <v>2733.989439111228</v>
       </c>
       <c r="O26" t="n">
-        <v>3066.407310910258</v>
+        <v>3356.369855554984</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.205569461966</v>
+        <v>3748.456665889526</v>
       </c>
       <c r="Q26" t="n">
-        <v>3929.665529323971</v>
+        <v>3994.724784998225</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.56785486858</v>
+        <v>4052.567854868581</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.67916785483</v>
+        <v>3989.679167854831</v>
       </c>
       <c r="T26" t="n">
-        <v>3831.454459204951</v>
+        <v>3831.454459204952</v>
       </c>
       <c r="U26" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822484</v>
       </c>
       <c r="V26" t="n">
         <v>3342.532595330514</v>
@@ -6269,7 +6269,7 @@
         <v>2711.971207502523</v>
       </c>
       <c r="Y26" t="n">
-        <v>2369.668388378312</v>
+        <v>2369.668388378313</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J27" t="n">
-        <v>173.7838743058709</v>
+        <v>179.5330996209501</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4333411581488</v>
+        <v>416.182566473228</v>
       </c>
       <c r="L27" t="n">
-        <v>774.9602948543036</v>
+        <v>780.7095201693828</v>
       </c>
       <c r="M27" t="n">
-        <v>1219.702924364352</v>
+        <v>1225.452149679431</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.625212820282</v>
+        <v>1696.374438135361</v>
       </c>
       <c r="O27" t="n">
-        <v>2099.207309421937</v>
+        <v>2104.956534737016</v>
       </c>
       <c r="P27" t="n">
         <v>2413.546622250497</v>
@@ -6364,28 +6364,28 @@
         <v>650.5394951928745</v>
       </c>
       <c r="D28" t="n">
-        <v>548.2593686321401</v>
+        <v>548.2593686321402</v>
       </c>
       <c r="E28" t="n">
-        <v>448.1827879013483</v>
+        <v>448.1827879013484</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1293532550393</v>
+        <v>349.1293532550395</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2544758522483</v>
+        <v>229.2544758522485</v>
       </c>
       <c r="H28" t="n">
         <v>130.7977523828814</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J28" t="n">
-        <v>172.4658485693975</v>
+        <v>172.4658485693973</v>
       </c>
       <c r="K28" t="n">
-        <v>422.363597727949</v>
+        <v>422.3635977279489</v>
       </c>
       <c r="L28" t="n">
         <v>784.5615777124657</v>
@@ -6397,16 +6397,16 @@
         <v>1561.299103931119</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.32831193287</v>
+        <v>1906.328311932871</v>
       </c>
       <c r="P28" t="n">
         <v>2184.806443050465</v>
       </c>
       <c r="Q28" t="n">
-        <v>2308.599309022132</v>
+        <v>2308.599309022133</v>
       </c>
       <c r="R28" t="n">
-        <v>2266.220762362311</v>
+        <v>2266.220762362312</v>
       </c>
       <c r="S28" t="n">
         <v>2122.222324613408</v>
@@ -6427,7 +6427,7 @@
         <v>1078.407183539747</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.4511172478184</v>
+        <v>905.4511172478183</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2043.006901671204</v>
+        <v>2043.006901671205</v>
       </c>
       <c r="C29" t="n">
         <v>1719.955604774715</v>
       </c>
       <c r="D29" t="n">
-        <v>1407.601126211886</v>
+        <v>1407.601126211887</v>
       </c>
       <c r="E29" t="n">
-        <v>1067.724093657564</v>
+        <v>1067.724093657565</v>
       </c>
       <c r="F29" t="n">
-        <v>702.6494089118792</v>
+        <v>702.6494089118796</v>
       </c>
       <c r="G29" t="n">
-        <v>333.4691099519792</v>
+        <v>333.4691099519793</v>
       </c>
       <c r="H29" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670853</v>
       </c>
       <c r="I29" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670853</v>
       </c>
       <c r="J29" t="n">
         <v>268.8943340580209</v>
       </c>
       <c r="K29" t="n">
-        <v>921.2403071341023</v>
+        <v>600.3363486886492</v>
       </c>
       <c r="L29" t="n">
-        <v>1369.325196249083</v>
+        <v>1461.905840208576</v>
       </c>
       <c r="M29" t="n">
-        <v>1899.575409548647</v>
+        <v>1992.156053508139</v>
       </c>
       <c r="N29" t="n">
-        <v>2443.019434037761</v>
+        <v>2535.600077997253</v>
       </c>
       <c r="O29" t="n">
-        <v>3319.835134307262</v>
+        <v>3383.874038521829</v>
       </c>
       <c r="P29" t="n">
-        <v>3711.921944641804</v>
+        <v>3775.960848856371</v>
       </c>
       <c r="Q29" t="n">
-        <v>4022.228967965069</v>
+        <v>4022.228967965071</v>
       </c>
       <c r="R29" t="n">
-        <v>4080.072037835425</v>
+        <v>4080.072037835426</v>
       </c>
       <c r="S29" t="n">
-        <v>4015.258058013996</v>
+        <v>4015.258058013997</v>
       </c>
       <c r="T29" t="n">
-        <v>3855.108056556438</v>
+        <v>3855.108056556439</v>
       </c>
       <c r="U29" t="n">
         <v>3647.487274366292</v>
       </c>
       <c r="V29" t="n">
-        <v>3362.335607066643</v>
+        <v>3362.335607066644</v>
       </c>
       <c r="W29" t="n">
-        <v>3055.478171840451</v>
+        <v>3055.478171840452</v>
       </c>
       <c r="X29" t="n">
-        <v>2727.923633623293</v>
+        <v>2727.923633623294</v>
       </c>
       <c r="Y29" t="n">
         <v>2383.695521691404</v>
@@ -6528,40 +6528,40 @@
         <v>464.2402754232478</v>
       </c>
       <c r="F30" t="n">
-        <v>317.7057174501327</v>
+        <v>317.7057174501328</v>
       </c>
       <c r="G30" t="n">
         <v>181.3324145491591</v>
       </c>
       <c r="H30" t="n">
-        <v>90.73198325996916</v>
+        <v>90.73198325996918</v>
       </c>
       <c r="I30" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670853</v>
       </c>
       <c r="J30" t="n">
-        <v>174.3339579652078</v>
+        <v>180.083183280287</v>
       </c>
       <c r="K30" t="n">
-        <v>410.9834248174857</v>
+        <v>416.7326501325649</v>
       </c>
       <c r="L30" t="n">
-        <v>775.5103785136405</v>
+        <v>781.2596038287197</v>
       </c>
       <c r="M30" t="n">
-        <v>1220.253008023689</v>
+        <v>1226.002233338768</v>
       </c>
       <c r="N30" t="n">
-        <v>1691.175296479619</v>
+        <v>1696.924521794698</v>
       </c>
       <c r="O30" t="n">
-        <v>2099.757393081274</v>
+        <v>2105.506618396353</v>
       </c>
       <c r="P30" t="n">
-        <v>2408.347480594754</v>
+        <v>2414.096705909833</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.712585410995</v>
+        <v>2570.461810726074</v>
       </c>
       <c r="R30" t="n">
         <v>2570.461810726074</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>739.7657778129533</v>
+        <v>785.6662985822711</v>
       </c>
       <c r="C31" t="n">
-        <v>616.7408149289686</v>
+        <v>662.6413356982864</v>
       </c>
       <c r="D31" t="n">
-        <v>558.4359163298727</v>
+        <v>558.4359163298728</v>
       </c>
       <c r="E31" t="n">
-        <v>456.4340427914018</v>
+        <v>456.4340427914019</v>
       </c>
       <c r="F31" t="n">
-        <v>355.4553153374137</v>
+        <v>355.4553153374138</v>
       </c>
       <c r="G31" t="n">
-        <v>233.6551451269435</v>
+        <v>233.6551451269436</v>
       </c>
       <c r="H31" t="n">
         <v>133.2731288498975</v>
       </c>
       <c r="I31" t="n">
-        <v>81.6014407567085</v>
+        <v>81.60144075670853</v>
       </c>
       <c r="J31" t="n">
-        <v>171.128952747928</v>
+        <v>171.1289527479278</v>
       </c>
       <c r="K31" t="n">
-        <v>419.1397224256731</v>
+        <v>419.1397224256729</v>
       </c>
       <c r="L31" t="n">
-        <v>779.4507229293836</v>
+        <v>779.4507229293833</v>
       </c>
       <c r="M31" t="n">
         <v>1167.291217373492</v>
@@ -6637,16 +6637,16 @@
         <v>1895.556518707369</v>
       </c>
       <c r="P31" t="n">
-        <v>2172.147670344158</v>
+        <v>2172.147670344157</v>
       </c>
       <c r="Q31" t="n">
-        <v>2294.053556835019</v>
+        <v>2294.053556835018</v>
       </c>
       <c r="R31" t="n">
-        <v>2249.749717367518</v>
+        <v>2249.749717367517</v>
       </c>
       <c r="S31" t="n">
-        <v>2103.825986810936</v>
+        <v>2103.825986810935</v>
       </c>
       <c r="T31" t="n">
         <v>1927.934044099999</v>
@@ -6658,13 +6658,13 @@
         <v>1475.968662546012</v>
       </c>
       <c r="W31" t="n">
-        <v>1232.462712552974</v>
+        <v>1232.462712552973</v>
       </c>
       <c r="X31" t="n">
         <v>1050.384381698879</v>
       </c>
       <c r="Y31" t="n">
-        <v>875.5030225992707</v>
+        <v>921.4035433685887</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2030.905061165791</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C32" t="n">
-        <v>1709.779057076981</v>
+        <v>1709.779057076983</v>
       </c>
       <c r="D32" t="n">
-        <v>1399.349871321832</v>
+        <v>1399.349871321834</v>
       </c>
       <c r="E32" t="n">
-        <v>1061.398131575189</v>
+        <v>1061.398131575191</v>
       </c>
       <c r="F32" t="n">
-        <v>698.248739637183</v>
+        <v>698.2487396371846</v>
       </c>
       <c r="G32" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H32" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737162</v>
       </c>
       <c r="I32" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737162</v>
       </c>
       <c r="J32" t="n">
-        <v>435.7498994190369</v>
+        <v>268.344250398684</v>
       </c>
       <c r="K32" t="n">
-        <v>767.191914049665</v>
+        <v>599.7862650293123</v>
       </c>
       <c r="L32" t="n">
-        <v>1215.276803164646</v>
+        <v>1047.871154144293</v>
       </c>
       <c r="M32" t="n">
-        <v>1745.527016464209</v>
+        <v>1578.121367443857</v>
       </c>
       <c r="N32" t="n">
-        <v>2288.971040953323</v>
+        <v>2479.554155285483</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.794561772706</v>
+        <v>3356.369855554984</v>
       </c>
       <c r="P32" t="n">
-        <v>3473.205569461966</v>
+        <v>3748.456665889526</v>
       </c>
       <c r="Q32" t="n">
-        <v>3929.665529323971</v>
+        <v>3994.724784998225</v>
       </c>
       <c r="R32" t="n">
-        <v>4052.567854868579</v>
+        <v>4052.567854868581</v>
       </c>
       <c r="S32" t="n">
-        <v>3989.679167854828</v>
+        <v>3989.679167854831</v>
       </c>
       <c r="T32" t="n">
-        <v>3831.45445920495</v>
+        <v>3831.454459204952</v>
       </c>
       <c r="U32" t="n">
-        <v>3625.758969822482</v>
+        <v>3625.758969822484</v>
       </c>
       <c r="V32" t="n">
-        <v>3342.532595330513</v>
+        <v>3342.532595330515</v>
       </c>
       <c r="W32" t="n">
-        <v>3037.600452912</v>
+        <v>3037.600452912002</v>
       </c>
       <c r="X32" t="n">
-        <v>2711.971207502522</v>
+        <v>2711.971207502524</v>
       </c>
       <c r="Y32" t="n">
-        <v>2369.668388378312</v>
+        <v>2369.668388378313</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>463.6901917639109</v>
       </c>
       <c r="F33" t="n">
-        <v>317.1556337907958</v>
+        <v>317.1556337907959</v>
       </c>
       <c r="G33" t="n">
         <v>180.7823308898222</v>
       </c>
       <c r="H33" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063228</v>
       </c>
       <c r="I33" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737162</v>
       </c>
       <c r="J33" t="n">
-        <v>179.5330996209514</v>
+        <v>173.7838743058709</v>
       </c>
       <c r="K33" t="n">
-        <v>416.1825664732291</v>
+        <v>410.4333411581488</v>
       </c>
       <c r="L33" t="n">
-        <v>780.7095201693838</v>
+        <v>774.9602948543036</v>
       </c>
       <c r="M33" t="n">
-        <v>1225.452149679432</v>
+        <v>1219.702924364352</v>
       </c>
       <c r="N33" t="n">
-        <v>1696.374438135362</v>
+        <v>1690.625212820282</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.956534737017</v>
+        <v>2104.956534737016</v>
       </c>
       <c r="P33" t="n">
         <v>2413.546622250497</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6391652691797</v>
+        <v>771.6391652691798</v>
       </c>
       <c r="C34" t="n">
-        <v>650.5394951928741</v>
+        <v>650.5394951928743</v>
       </c>
       <c r="D34" t="n">
         <v>548.2593686321399</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1827879013482</v>
+        <v>448.1827879013481</v>
       </c>
       <c r="F34" t="n">
-        <v>349.1293532550393</v>
+        <v>349.1293532550391</v>
       </c>
       <c r="G34" t="n">
-        <v>229.2544758522483</v>
+        <v>229.2544758522481</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7977523828814</v>
+        <v>130.7977523828815</v>
       </c>
       <c r="I34" t="n">
-        <v>81.05135709737158</v>
+        <v>81.05135709737162</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4658485693972</v>
+        <v>172.4658485693974</v>
       </c>
       <c r="K34" t="n">
-        <v>422.3635977279486</v>
+        <v>422.363597727949</v>
       </c>
       <c r="L34" t="n">
-        <v>784.5615777124654</v>
+        <v>784.5615777124657</v>
       </c>
       <c r="M34" t="n">
         <v>1174.289051637381</v>
@@ -6901,7 +6901,7 @@
         <v>1078.407183539747</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4511172478179</v>
+        <v>905.4511172478182</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2030.905061165792</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.779057076982</v>
+        <v>1709.779057076983</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.349871321833</v>
+        <v>1399.349871321834</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.39813157519</v>
+        <v>1061.398131575191</v>
       </c>
       <c r="F35" t="n">
-        <v>698.2487396371835</v>
+        <v>698.2487396371846</v>
       </c>
       <c r="G35" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H35" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I35" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J35" t="n">
         <v>435.749899419037</v>
@@ -6953,19 +6953,19 @@
         <v>2788.794561772707</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.205569461966</v>
+        <v>3499.462093197017</v>
       </c>
       <c r="Q35" t="n">
-        <v>3929.665529323971</v>
+        <v>3929.665529323972</v>
       </c>
       <c r="R35" t="n">
-        <v>4052.56785486858</v>
+        <v>4052.567854868581</v>
       </c>
       <c r="S35" t="n">
-        <v>3989.67916785483</v>
+        <v>3989.679167854831</v>
       </c>
       <c r="T35" t="n">
-        <v>3831.454459204951</v>
+        <v>3831.454459204952</v>
       </c>
       <c r="U35" t="n">
         <v>3625.758969822484</v>
@@ -6977,7 +6977,7 @@
         <v>3037.600452912002</v>
       </c>
       <c r="X35" t="n">
-        <v>2711.971207502523</v>
+        <v>2711.971207502524</v>
       </c>
       <c r="Y35" t="n">
         <v>2369.668388378313</v>
@@ -7008,10 +7008,10 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H36" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I36" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J36" t="n">
         <v>173.7838743058709</v>
@@ -7029,13 +7029,13 @@
         <v>1690.625212820282</v>
       </c>
       <c r="O36" t="n">
-        <v>2099.207309421937</v>
+        <v>2104.956534737016</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.797396935418</v>
+        <v>2413.546622250497</v>
       </c>
       <c r="Q36" t="n">
-        <v>2564.162501751659</v>
+        <v>2569.911727066738</v>
       </c>
       <c r="R36" t="n">
         <v>2569.911727066738</v>
@@ -7081,37 +7081,37 @@
         <v>448.1827879013481</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1293532550391</v>
+        <v>349.1293532550392</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2544758522481</v>
+        <v>229.2544758522482</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7977523828815</v>
+        <v>130.7977523828813</v>
       </c>
       <c r="I37" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K37" t="n">
-        <v>422.3635977279489</v>
+        <v>422.363597727949</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5615777124656</v>
+        <v>784.561577712466</v>
       </c>
       <c r="M37" t="n">
         <v>1174.289051637381</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.299103931118</v>
+        <v>1561.299103931119</v>
       </c>
       <c r="O37" t="n">
         <v>1906.32831193287</v>
       </c>
       <c r="P37" t="n">
-        <v>2184.806443050464</v>
+        <v>2184.806443050465</v>
       </c>
       <c r="Q37" t="n">
         <v>2308.599309022132</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.905061165792</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C38" t="n">
         <v>1709.779057076982</v>
@@ -7160,40 +7160,40 @@
         <v>1061.39813157519</v>
       </c>
       <c r="F38" t="n">
-        <v>698.2487396371836</v>
+        <v>698.2487396371839</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9937334849632</v>
+        <v>330.9937334849633</v>
       </c>
       <c r="H38" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I38" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J38" t="n">
         <v>435.749899419037</v>
       </c>
       <c r="K38" t="n">
-        <v>767.1919140496652</v>
+        <v>1088.095872495118</v>
       </c>
       <c r="L38" t="n">
-        <v>1215.276803164646</v>
+        <v>1536.180761610099</v>
       </c>
       <c r="M38" t="n">
-        <v>2190.545414622114</v>
+        <v>2066.430974909663</v>
       </c>
       <c r="N38" t="n">
-        <v>2733.989439111228</v>
+        <v>2609.874999398777</v>
       </c>
       <c r="O38" t="n">
-        <v>3233.812959930611</v>
+        <v>3109.69852021816</v>
       </c>
       <c r="P38" t="n">
-        <v>3625.899770265153</v>
+        <v>3501.785330552702</v>
       </c>
       <c r="Q38" t="n">
-        <v>3929.665529323971</v>
+        <v>3929.665529323972</v>
       </c>
       <c r="R38" t="n">
         <v>4052.56785486858</v>
@@ -7205,16 +7205,16 @@
         <v>3831.454459204951</v>
       </c>
       <c r="U38" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822484</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.532595330514</v>
+        <v>3342.532595330515</v>
       </c>
       <c r="W38" t="n">
-        <v>3037.600452912001</v>
+        <v>3037.600452912002</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.971207502523</v>
+        <v>2711.971207502524</v>
       </c>
       <c r="Y38" t="n">
         <v>2369.668388378313</v>
@@ -7245,10 +7245,10 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I39" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J39" t="n">
         <v>173.7838743058709</v>
@@ -7272,7 +7272,7 @@
         <v>2407.797396935418</v>
       </c>
       <c r="Q39" t="n">
-        <v>2564.162501751659</v>
+        <v>2569.911727066738</v>
       </c>
       <c r="R39" t="n">
         <v>2569.911727066738</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.6391652691802</v>
+        <v>771.63916526918</v>
       </c>
       <c r="C40" t="n">
-        <v>650.5394951928747</v>
+        <v>650.5394951928745</v>
       </c>
       <c r="D40" t="n">
-        <v>548.2593686321403</v>
+        <v>548.2593686321401</v>
       </c>
       <c r="E40" t="n">
-        <v>448.1827879013485</v>
+        <v>448.1827879013483</v>
       </c>
       <c r="F40" t="n">
-        <v>349.1293532550396</v>
+        <v>349.1293532550393</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2544758522486</v>
+        <v>229.2544758522484</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7977523828814</v>
+        <v>130.7977523828815</v>
       </c>
       <c r="I40" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J40" t="n">
         <v>172.4658485693975</v>
@@ -7342,22 +7342,22 @@
         <v>1174.289051637381</v>
       </c>
       <c r="N40" t="n">
-        <v>1561.299103931119</v>
+        <v>1561.299103931118</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.328311932871</v>
+        <v>1906.32831193287</v>
       </c>
       <c r="P40" t="n">
-        <v>2184.806443050465</v>
+        <v>2184.806443050464</v>
       </c>
       <c r="Q40" t="n">
-        <v>2308.599309022133</v>
+        <v>2308.599309022132</v>
       </c>
       <c r="R40" t="n">
-        <v>2266.220762362312</v>
+        <v>2266.220762362311</v>
       </c>
       <c r="S40" t="n">
-        <v>2122.222324613409</v>
+        <v>2122.222324613408</v>
       </c>
       <c r="T40" t="n">
         <v>1948.255674710151</v>
@@ -7366,7 +7366,7 @@
         <v>1706.988854125808</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.140878771523</v>
+        <v>1500.140878771522</v>
       </c>
       <c r="W40" t="n">
         <v>1258.560221586163</v>
@@ -7375,7 +7375,7 @@
         <v>1078.407183539747</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.4511172478186</v>
+        <v>905.4511172478184</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2030.905061165792</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C41" t="n">
         <v>1709.779057076982</v>
@@ -7397,40 +7397,40 @@
         <v>1061.39813157519</v>
       </c>
       <c r="F41" t="n">
-        <v>698.2487396371839</v>
+        <v>698.248739637184</v>
       </c>
       <c r="G41" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H41" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I41" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J41" t="n">
         <v>435.749899419037</v>
       </c>
       <c r="K41" t="n">
-        <v>767.1919140496652</v>
+        <v>1059.516111404383</v>
       </c>
       <c r="L41" t="n">
-        <v>1215.276803164646</v>
+        <v>1507.601000519364</v>
       </c>
       <c r="M41" t="n">
-        <v>1745.52701646421</v>
+        <v>2037.851213818928</v>
       </c>
       <c r="N41" t="n">
-        <v>2288.971040953324</v>
+        <v>2581.295238308041</v>
       </c>
       <c r="O41" t="n">
-        <v>2788.794561772707</v>
+        <v>3081.118759127425</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.205569461966</v>
+        <v>3473.205569461967</v>
       </c>
       <c r="Q41" t="n">
-        <v>3929.665529323971</v>
+        <v>3929.665529323972</v>
       </c>
       <c r="R41" t="n">
         <v>4052.56785486858</v>
@@ -7482,10 +7482,10 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H42" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I42" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J42" t="n">
         <v>173.7838743058709</v>
@@ -7509,7 +7509,7 @@
         <v>2407.797396935418</v>
       </c>
       <c r="Q42" t="n">
-        <v>2564.162501751659</v>
+        <v>2569.911727066738</v>
       </c>
       <c r="R42" t="n">
         <v>2569.911727066738</v>
@@ -7555,7 +7555,7 @@
         <v>448.182787901348</v>
       </c>
       <c r="F43" t="n">
-        <v>349.129353255039</v>
+        <v>349.1293532550391</v>
       </c>
       <c r="G43" t="n">
         <v>229.2544758522481</v>
@@ -7564,19 +7564,19 @@
         <v>130.7977523828814</v>
       </c>
       <c r="I43" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4658485693974</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3635977279489</v>
+        <v>422.3635977279487</v>
       </c>
       <c r="L43" t="n">
-        <v>784.5615777124656</v>
+        <v>784.5615777124654</v>
       </c>
       <c r="M43" t="n">
-        <v>1174.289051637381</v>
+        <v>1174.28905163738</v>
       </c>
       <c r="N43" t="n">
         <v>1561.299103931118</v>
@@ -7585,7 +7585,7 @@
         <v>1906.32831193287</v>
       </c>
       <c r="P43" t="n">
-        <v>2184.806443050465</v>
+        <v>2184.806443050464</v>
       </c>
       <c r="Q43" t="n">
         <v>2308.599309022132</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.905061165791</v>
+        <v>2030.905061165793</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.779057076981</v>
+        <v>1709.779057076983</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.349871321832</v>
+        <v>1399.349871321833</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.398131575189</v>
+        <v>1061.398131575191</v>
       </c>
       <c r="F44" t="n">
-        <v>698.2487396371835</v>
+        <v>698.2487396371844</v>
       </c>
       <c r="G44" t="n">
         <v>330.9937334849632</v>
       </c>
       <c r="H44" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="I44" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J44" t="n">
         <v>435.749899419037</v>
       </c>
       <c r="K44" t="n">
-        <v>767.1919140496652</v>
+        <v>1088.095872495118</v>
       </c>
       <c r="L44" t="n">
-        <v>1215.276803164646</v>
+        <v>1717.79284127267</v>
       </c>
       <c r="M44" t="n">
-        <v>1745.52701646421</v>
+        <v>2248.043054572234</v>
       </c>
       <c r="N44" t="n">
-        <v>2288.971040953324</v>
+        <v>2791.487079061348</v>
       </c>
       <c r="O44" t="n">
-        <v>2788.794561772707</v>
+        <v>3291.310599880731</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.205569461966</v>
+        <v>3683.397410215273</v>
       </c>
       <c r="Q44" t="n">
-        <v>3929.665529323971</v>
+        <v>3929.665529323972</v>
       </c>
       <c r="R44" t="n">
-        <v>4052.56785486858</v>
+        <v>4052.567854868581</v>
       </c>
       <c r="S44" t="n">
-        <v>3989.67916785483</v>
+        <v>3989.679167854831</v>
       </c>
       <c r="T44" t="n">
-        <v>3831.454459204951</v>
+        <v>3831.454459204952</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.758969822483</v>
+        <v>3625.758969822485</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.532595330513</v>
+        <v>3342.532595330516</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.600452912</v>
+        <v>3037.600452912003</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.971207502522</v>
+        <v>2711.971207502524</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.668388378312</v>
+        <v>2369.668388378313</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>180.7823308898222</v>
       </c>
       <c r="H45" t="n">
-        <v>90.18189960063225</v>
+        <v>90.18189960063226</v>
       </c>
       <c r="I45" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J45" t="n">
         <v>173.7838743058709</v>
@@ -7731,16 +7731,16 @@
         <v>410.4333411581488</v>
       </c>
       <c r="L45" t="n">
-        <v>774.9602948543036</v>
+        <v>780.7095201693828</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.702924364352</v>
+        <v>1225.452149679431</v>
       </c>
       <c r="N45" t="n">
-        <v>1690.625212820282</v>
+        <v>1696.374438135361</v>
       </c>
       <c r="O45" t="n">
-        <v>2099.207309421937</v>
+        <v>2104.956534737016</v>
       </c>
       <c r="P45" t="n">
         <v>2413.546622250497</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.6391652691796</v>
+        <v>771.6391652691799</v>
       </c>
       <c r="C46" t="n">
-        <v>650.539495192874</v>
+        <v>650.5394951928744</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2593686321397</v>
+        <v>548.25936863214</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1827879013481</v>
+        <v>448.1827879013483</v>
       </c>
       <c r="F46" t="n">
-        <v>349.1293532550392</v>
+        <v>349.1293532550393</v>
       </c>
       <c r="G46" t="n">
-        <v>229.2544758522482</v>
+        <v>229.2544758522483</v>
       </c>
       <c r="H46" t="n">
         <v>130.7977523828814</v>
       </c>
       <c r="I46" t="n">
-        <v>81.05135709737159</v>
+        <v>81.05135709737161</v>
       </c>
       <c r="J46" t="n">
-        <v>172.4658485693967</v>
+        <v>172.4658485693975</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3635977279482</v>
+        <v>422.3635977279494</v>
       </c>
       <c r="L46" t="n">
-        <v>784.561577712465</v>
+        <v>784.5615777124661</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.28905163738</v>
+        <v>1174.289051637381</v>
       </c>
       <c r="N46" t="n">
-        <v>1561.299103931118</v>
+        <v>1561.299103931119</v>
       </c>
       <c r="O46" t="n">
         <v>1906.32831193287</v>
       </c>
       <c r="P46" t="n">
-        <v>2184.806443050464</v>
+        <v>2184.806443050465</v>
       </c>
       <c r="Q46" t="n">
         <v>2308.599309022132</v>
@@ -7834,22 +7834,22 @@
         <v>2122.222324613408</v>
       </c>
       <c r="T46" t="n">
-        <v>1948.25567471015</v>
+        <v>1948.255674710151</v>
       </c>
       <c r="U46" t="n">
-        <v>1706.988854125807</v>
+        <v>1706.988854125808</v>
       </c>
       <c r="V46" t="n">
         <v>1500.140878771522</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.560221586162</v>
+        <v>1258.560221586163</v>
       </c>
       <c r="X46" t="n">
-        <v>1078.407183539746</v>
+        <v>1078.407183539747</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.4511172478178</v>
+        <v>905.4511172478183</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.1526054916175</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>149.0100796637298</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>5.807298298059862</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.80729829805972</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,10 +8927,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>25.95794781350543</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.3041717040482</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>5.807298298060047</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>5.80729829806026</v>
       </c>
       <c r="R15" t="n">
         <v>0.7700396881377287</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>78.60207870464205</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.3041717040482</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>5.807298298060047</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>5.807298298060061</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>121.8204541924732</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>185.1901696657713</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>5.807298298059948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.7700396881377287</v>
+        <v>6.577337986199193</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>155.6471630074037</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>39.19467872646692</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>5.807298298059777</v>
       </c>
       <c r="R24" t="n">
-        <v>6.577337986197326</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>123.7948440650231</v>
       </c>
       <c r="P26" t="n">
-        <v>14.86004870420845</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>5.80729829805982</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.807298298059777</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,10 +10112,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>351.9701411163564</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.68576183289517</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>5.807298298059806</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.577337986197326</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>361.6048114671842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>295.2769670249681</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>5.80729829806117</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>5.807298298059607</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7700396881377571</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>295.276967024967</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>185.7932495133901</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>5.807298298059607</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.577337986197326</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.07842419203971</v>
+        <v>183.4465451137076</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>5.807298298059777</v>
       </c>
       <c r="R39" t="n">
-        <v>6.577337986197326</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>295.2769670249677</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>295.276967024967</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>5.807298298059777</v>
       </c>
       <c r="R42" t="n">
-        <v>6.577337986197326</v>
+        <v>0.7700396881377287</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>183.4465451137083</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.276967024967</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.807298298059834</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.807298298059777</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.213312577412061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9406038137835</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.30473004905181</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>109.6179478666978</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0006092864651</v>
+        <v>175.5349576617047</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9966822117283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.94864793221302</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>86.22085587592036</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0342763518484</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8303039577586</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.60707905574009</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.3129089163083</v>
       </c>
       <c r="S13" t="n">
-        <v>189.9166010944994</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5851311273101</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>380.0243301926595</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.06867764177205</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.39869016944942</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>107.7119079870954</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>206.9854397392474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>347.3349288378107</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>384.3318987764512</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.05850283812069</v>
+        <v>177.9259403023349</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>165.3407812190254</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.7094331386099</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>144.5279227669668</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>143.5150081433288</v>
       </c>
       <c r="G16" t="n">
-        <v>164.1282364722461</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>94.70103917613775</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>87.40686903670588</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.510044595444428</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3062602219825</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>284.6169584569887</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>223.8036155094348</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>216.6786134724924</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>62.69973669403052</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>62.69973669403229</v>
       </c>
     </row>
     <row r="18">
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>62.69973669403243</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>62.69973669403029</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>45.44151556162443</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>45.44151556162452</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959993.6915879858</v>
+        <v>959993.6915879862</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>286746.7185509634</v>
       </c>
       <c r="C2" t="n">
-        <v>286746.7185509634</v>
+        <v>286746.7185509636</v>
       </c>
       <c r="D2" t="n">
-        <v>287129.8518196917</v>
+        <v>287129.8518196918</v>
       </c>
       <c r="E2" t="n">
         <v>237958.5628824171</v>
       </c>
       <c r="F2" t="n">
-        <v>257661.7943903412</v>
+        <v>257661.7943903414</v>
       </c>
       <c r="G2" t="n">
-        <v>285617.8047882036</v>
+        <v>285617.8047882035</v>
       </c>
       <c r="H2" t="n">
-        <v>285617.8047882035</v>
+        <v>285617.8047882033</v>
       </c>
       <c r="I2" t="n">
+        <v>287364.6194524992</v>
+      </c>
+      <c r="J2" t="n">
         <v>287364.6194524991</v>
       </c>
-      <c r="J2" t="n">
-        <v>287364.6194524993</v>
-      </c>
       <c r="K2" t="n">
-        <v>286982.9107217815</v>
+        <v>286982.9107217816</v>
       </c>
       <c r="L2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26375,31 +26375,31 @@
         <v>1116224.078192299</v>
       </c>
       <c r="F3" t="n">
-        <v>50617.83679063753</v>
+        <v>50617.83679063738</v>
       </c>
       <c r="G3" t="n">
-        <v>36361.68627478638</v>
+        <v>36361.68627478636</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4296.324644767361</v>
+        <v>4296.324644767512</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.674140452708</v>
+        <v>1769.674140452789</v>
       </c>
       <c r="L3" t="n">
-        <v>37886.51817846831</v>
+        <v>37886.51817846828</v>
       </c>
       <c r="M3" t="n">
         <v>204040.9533358575</v>
       </c>
       <c r="N3" t="n">
-        <v>41965.48448639006</v>
+        <v>41965.48448638981</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>414772.398612959</v>
       </c>
       <c r="D4" t="n">
-        <v>414471.3742669506</v>
+        <v>414471.3742669507</v>
       </c>
       <c r="E4" t="n">
-        <v>8777.038882543349</v>
+        <v>8777.038882543347</v>
       </c>
       <c r="F4" t="n">
-        <v>28335.22508352505</v>
+        <v>28335.22508352508</v>
       </c>
       <c r="G4" t="n">
-        <v>74037.06607601524</v>
+        <v>74037.06607601521</v>
       </c>
       <c r="H4" t="n">
-        <v>74037.0660760153</v>
+        <v>74037.06607601527</v>
       </c>
       <c r="I4" t="n">
-        <v>75699.68064272869</v>
+        <v>75699.68064272872</v>
       </c>
       <c r="J4" t="n">
-        <v>75699.68064272869</v>
+        <v>75699.68064272875</v>
       </c>
       <c r="K4" t="n">
         <v>74567.73425271697</v>
       </c>
       <c r="L4" t="n">
-        <v>75699.68064272878</v>
+        <v>75699.68064272872</v>
       </c>
       <c r="M4" t="n">
-        <v>75699.68064272868</v>
+        <v>75699.68064272872</v>
       </c>
       <c r="N4" t="n">
-        <v>75699.68064272869</v>
+        <v>75699.68064272872</v>
       </c>
       <c r="O4" t="n">
-        <v>75699.68064272865</v>
+        <v>75699.68064272872</v>
       </c>
       <c r="P4" t="n">
         <v>75699.68064272872</v>
@@ -26476,37 +26476,37 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>73854.08750402676</v>
+        <v>73854.08750402677</v>
       </c>
       <c r="F5" t="n">
-        <v>84431.72198965566</v>
+        <v>84431.72198965563</v>
       </c>
       <c r="G5" t="n">
-        <v>88252.83524394943</v>
+        <v>88252.83524394939</v>
       </c>
       <c r="H5" t="n">
-        <v>88252.83524394943</v>
+        <v>88252.83524394939</v>
       </c>
       <c r="I5" t="n">
         <v>89235.14404393836</v>
       </c>
       <c r="J5" t="n">
-        <v>89235.14404393836</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="K5" t="n">
-        <v>89492.96875839612</v>
+        <v>89492.96875839613</v>
       </c>
       <c r="L5" t="n">
-        <v>89235.14404393836</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="M5" t="n">
-        <v>89235.14404393836</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="N5" t="n">
-        <v>89235.14404393836</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="O5" t="n">
-        <v>89235.14404393836</v>
+        <v>89235.14404393837</v>
       </c>
       <c r="P5" t="n">
         <v>89235.14404393837</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-161653.2800619955</v>
+        <v>-161657.6936398636</v>
       </c>
       <c r="C6" t="n">
-        <v>-161653.2800619955</v>
+        <v>-161657.6936398635</v>
       </c>
       <c r="D6" t="n">
-        <v>-163523.0921171029</v>
+        <v>-163524.7690287657</v>
       </c>
       <c r="E6" t="n">
-        <v>-960896.6416964517</v>
+        <v>-961249.5421005237</v>
       </c>
       <c r="F6" t="n">
-        <v>94277.01052652294</v>
+        <v>94064.84749036499</v>
       </c>
       <c r="G6" t="n">
-        <v>86966.21719345252</v>
+        <v>86953.73994585042</v>
       </c>
       <c r="H6" t="n">
-        <v>123327.9034682387</v>
+        <v>123315.4262206366</v>
       </c>
       <c r="I6" t="n">
-        <v>118133.4701210647</v>
+        <v>118133.4701210646</v>
       </c>
       <c r="J6" t="n">
-        <v>122429.7947658322</v>
+        <v>122429.794765832</v>
       </c>
       <c r="K6" t="n">
-        <v>121152.5335702158</v>
+        <v>121149.807079282</v>
       </c>
       <c r="L6" t="n">
-        <v>84543.27658736375</v>
+        <v>84543.27658736383</v>
       </c>
       <c r="M6" t="n">
-        <v>-81611.15857002538</v>
+        <v>-81611.15857002549</v>
       </c>
       <c r="N6" t="n">
-        <v>80464.3102794421</v>
+        <v>80464.31027944229</v>
       </c>
       <c r="O6" t="n">
-        <v>122429.7947658322</v>
+        <v>122429.794765832</v>
       </c>
       <c r="P6" t="n">
-        <v>122429.7947658322</v>
+        <v>122429.7947658323</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="G2" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H2" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I2" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J2" t="n">
+        <v>47.35814772308538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45.45210784348296</v>
+      </c>
+      <c r="L2" t="n">
         <v>47.35814772308535</v>
       </c>
-      <c r="K2" t="n">
-        <v>45.45210784348299</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.3581477230854</v>
-      </c>
       <c r="M2" t="n">
+        <v>47.35814772308535</v>
+      </c>
+      <c r="N2" t="n">
         <v>47.35814772308534</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>47.35814772308535</v>
       </c>
-      <c r="O2" t="n">
-        <v>47.35814772308533</v>
-      </c>
       <c r="P2" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1085.080758211188</v>
       </c>
       <c r="H3" t="n">
-        <v>1085.080758211188</v>
+        <v>1085.080758211187</v>
       </c>
       <c r="I3" t="n">
         <v>1085.080758211188</v>
@@ -26765,7 +26765,7 @@
         <v>1085.080758211188</v>
       </c>
       <c r="L3" t="n">
-        <v>1085.080758211187</v>
+        <v>1085.080758211188</v>
       </c>
       <c r="M3" t="n">
         <v>1085.080758211188</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>825.6468252470866</v>
+        <v>825.6468252470868</v>
       </c>
       <c r="F4" t="n">
-        <v>996.9855689804849</v>
+        <v>996.9855689804842</v>
       </c>
       <c r="G4" t="n">
-        <v>996.9855689804849</v>
+        <v>996.9855689804842</v>
       </c>
       <c r="H4" t="n">
-        <v>996.9855689804849</v>
+        <v>996.9855689804842</v>
       </c>
       <c r="I4" t="n">
         <v>1013.141963717145</v>
@@ -26814,7 +26814,7 @@
         <v>1013.141963717145</v>
       </c>
       <c r="K4" t="n">
-        <v>1020.018009458856</v>
+        <v>1020.018009458857</v>
       </c>
       <c r="L4" t="n">
         <v>1013.141963717145</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.906039879602289</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="G2" t="n">
-        <v>45.45210784348297</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.35814772308538</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>818.7707795053751</v>
+        <v>818.7707795053753</v>
       </c>
       <c r="F4" t="n">
-        <v>171.3387437333984</v>
+        <v>171.3387437333975</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,13 +27030,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.15639473665999</v>
+        <v>16.15639473666056</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>818.7707795053752</v>
       </c>
       <c r="N4" t="n">
-        <v>171.3387437333984</v>
+        <v>171.3387437333973</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.906039879602289</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45210784348297</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>818.7707795053751</v>
+        <v>818.7707795053753</v>
       </c>
       <c r="N4" t="n">
-        <v>171.3387437333984</v>
+        <v>171.3387437333975</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>204.4194684811065</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>5.073243612901081</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>84.0868030883735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>166.3733413407963</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>158.8921921532466</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>173.9584110229766</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="C14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="D14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="E14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="F14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="G14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="H14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="I14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="T14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="U14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="V14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="W14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="X14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="C16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="D16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="E16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="F16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="G16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="H16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="I16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="J16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="K16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="L16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="M16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="N16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="O16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="P16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="R16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="S16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="T16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="U16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="V16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="W16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="X16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.906039879602318</v>
+        <v>1.906039879602424</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I17" t="n">
         <v>42.30473004905184</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308481</v>
       </c>
       <c r="P19" t="n">
-        <v>47.35814772308666</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.35814772308529</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I20" t="n">
-        <v>42.30473004905184</v>
+        <v>42.3047300490519</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O22" t="n">
-        <v>47.35814772308504</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="P22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I23" t="n">
         <v>42.30473004905184</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="P25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308478</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.35814772308537</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I26" t="n">
         <v>42.30473004905184</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="C28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="D28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="E28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="F28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="G28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="H28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="I28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="J28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="K28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="L28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="M28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="N28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="O28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="P28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="S28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="T28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="U28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="V28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="W28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="X28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308538</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="C29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="D29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="E29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="F29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="G29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="H29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="I29" t="n">
         <v>42.30473004905184</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="T29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="U29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="V29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="W29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="X29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="C31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="D31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="E31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="F31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="G31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="H31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="I31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="J31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="K31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="L31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="M31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="N31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="O31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="P31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="R31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="S31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="T31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="U31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="V31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="W31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="X31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.45210784348299</v>
+        <v>45.45210784348296</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I32" t="n">
-        <v>42.3047300490519</v>
+        <v>42.30473004905184</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="J34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="K34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="L34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="M34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="N34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="O34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="P34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="R34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="S34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.3581477230854</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I35" t="n">
         <v>42.30473004905184</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="J37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="K37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="L37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="M37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="N37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="O37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="P37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="R37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="S37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.35814772308534</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="C38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="D38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="E38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="F38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="G38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="H38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="I38" t="n">
         <v>42.30473004905184</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="T38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="U38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="V38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="W38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="X38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="C40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="D40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="E40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="F40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="G40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="H40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="I40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="J40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="K40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="L40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="M40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="N40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="O40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="P40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308595</v>
       </c>
       <c r="R40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="S40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="T40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="U40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="V40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="W40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="X40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.35814772308535</v>
+        <v>47.35814772308534</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I41" t="n">
         <v>42.30473004905184</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="J43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="K43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="L43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="M43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="N43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="O43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="P43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="S43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.35814772308533</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I44" t="n">
         <v>42.30473004905184</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="C46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="D46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="E46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="F46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="G46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="H46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="I46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="J46" t="n">
-        <v>47.35814772308456</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="K46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308578</v>
       </c>
       <c r="L46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="M46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="N46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="O46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="P46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="S46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="T46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="U46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="V46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="W46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="X46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.35814772308539</v>
+        <v>47.35814772308535</v>
       </c>
     </row>
   </sheetData>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.362133701351505</v>
+        <v>4.362133701351504</v>
       </c>
       <c r="H20" t="n">
-        <v>44.67370176896611</v>
+        <v>44.6737017689661</v>
       </c>
       <c r="I20" t="n">
-        <v>168.1711595213541</v>
+        <v>168.171159521354</v>
       </c>
       <c r="J20" t="n">
-        <v>370.2306452350826</v>
+        <v>370.2306452350825</v>
       </c>
       <c r="K20" t="n">
-        <v>554.8797648132919</v>
+        <v>554.8797648132918</v>
       </c>
       <c r="L20" t="n">
-        <v>688.3774140760282</v>
+        <v>688.3774140760281</v>
       </c>
       <c r="M20" t="n">
-        <v>765.952509287438</v>
+        <v>765.9525092874378</v>
       </c>
       <c r="N20" t="n">
-        <v>778.346421666403</v>
+        <v>778.3464216664029</v>
       </c>
       <c r="O20" t="n">
-        <v>734.970454673589</v>
+        <v>734.9704546735888</v>
       </c>
       <c r="P20" t="n">
-        <v>627.2802789214736</v>
+        <v>627.2802789214735</v>
       </c>
       <c r="Q20" t="n">
-        <v>471.0613657418227</v>
+        <v>471.0613657418226</v>
       </c>
       <c r="R20" t="n">
         <v>274.0128811175217</v>
       </c>
       <c r="S20" t="n">
-        <v>99.40212171954752</v>
+        <v>99.40212171954749</v>
       </c>
       <c r="T20" t="n">
         <v>19.09524027766622</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.333947291246706</v>
+        <v>2.333947291246705</v>
       </c>
       <c r="H21" t="n">
-        <v>22.54101726019845</v>
+        <v>22.54101726019844</v>
       </c>
       <c r="I21" t="n">
-        <v>80.35739577318702</v>
+        <v>80.35739577318701</v>
       </c>
       <c r="J21" t="n">
         <v>220.5068359681811</v>
       </c>
       <c r="K21" t="n">
-        <v>376.8813044817104</v>
+        <v>376.8813044817103</v>
       </c>
       <c r="L21" t="n">
-        <v>506.7634239174043</v>
+        <v>506.7634239174042</v>
       </c>
       <c r="M21" t="n">
-        <v>591.3690132250972</v>
+        <v>591.3690132250971</v>
       </c>
       <c r="N21" t="n">
-        <v>607.0207913317474</v>
+        <v>607.0207913317472</v>
       </c>
       <c r="O21" t="n">
-        <v>555.305432930965</v>
+        <v>555.3054329309649</v>
       </c>
       <c r="P21" t="n">
-        <v>445.6815665188556</v>
+        <v>445.6815665188555</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.9263244054567</v>
+        <v>297.9263244054566</v>
       </c>
       <c r="R21" t="n">
         <v>144.9094642758262</v>
       </c>
       <c r="S21" t="n">
-        <v>43.35204727381488</v>
+        <v>43.35204727381487</v>
       </c>
       <c r="T21" t="n">
-        <v>9.407445441472463</v>
+        <v>9.407445441472461</v>
       </c>
       <c r="U21" t="n">
         <v>0.1535491638978096</v>
@@ -32625,25 +32625,25 @@
         <v>17.39686854968102</v>
       </c>
       <c r="I22" t="n">
-        <v>58.84339587151819</v>
+        <v>58.84339587151818</v>
       </c>
       <c r="J22" t="n">
         <v>138.3389025673509</v>
       </c>
       <c r="K22" t="n">
-        <v>227.3333129498193</v>
+        <v>227.3333129498192</v>
       </c>
       <c r="L22" t="n">
         <v>290.9083724555043</v>
       </c>
       <c r="M22" t="n">
-        <v>306.722090390746</v>
+        <v>306.7220903907459</v>
       </c>
       <c r="N22" t="n">
-        <v>299.428924638835</v>
+        <v>299.4289246388349</v>
       </c>
       <c r="O22" t="n">
-        <v>276.5710758797959</v>
+        <v>276.5710758797958</v>
       </c>
       <c r="P22" t="n">
         <v>236.6543345449448</v>
@@ -32652,16 +32652,16 @@
         <v>163.8471944898893</v>
       </c>
       <c r="R22" t="n">
-        <v>87.98048246086118</v>
+        <v>87.98048246086117</v>
       </c>
       <c r="S22" t="n">
         <v>34.09999694247288</v>
       </c>
       <c r="T22" t="n">
-        <v>8.360458300971443</v>
+        <v>8.360458300971441</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1067292549060186</v>
+        <v>0.1067292549060185</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.362133701351504</v>
+        <v>4.362133701351505</v>
       </c>
       <c r="H32" t="n">
-        <v>44.6737017689661</v>
+        <v>44.67370176896611</v>
       </c>
       <c r="I32" t="n">
-        <v>168.171159521354</v>
+        <v>168.1711595213541</v>
       </c>
       <c r="J32" t="n">
-        <v>370.2306452350825</v>
+        <v>370.2306452350826</v>
       </c>
       <c r="K32" t="n">
-        <v>554.8797648132918</v>
+        <v>554.8797648132919</v>
       </c>
       <c r="L32" t="n">
-        <v>688.3774140760281</v>
+        <v>688.3774140760282</v>
       </c>
       <c r="M32" t="n">
-        <v>765.9525092874378</v>
+        <v>765.952509287438</v>
       </c>
       <c r="N32" t="n">
-        <v>778.3464216664029</v>
+        <v>778.346421666403</v>
       </c>
       <c r="O32" t="n">
-        <v>734.9704546735888</v>
+        <v>734.970454673589</v>
       </c>
       <c r="P32" t="n">
-        <v>627.2802789214735</v>
+        <v>627.2802789214736</v>
       </c>
       <c r="Q32" t="n">
-        <v>471.0613657418226</v>
+        <v>471.0613657418227</v>
       </c>
       <c r="R32" t="n">
         <v>274.0128811175217</v>
       </c>
       <c r="S32" t="n">
-        <v>99.40212171954749</v>
+        <v>99.40212171954752</v>
       </c>
       <c r="T32" t="n">
         <v>19.09524027766622</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.333947291246705</v>
+        <v>2.333947291246706</v>
       </c>
       <c r="H33" t="n">
-        <v>22.54101726019844</v>
+        <v>22.54101726019845</v>
       </c>
       <c r="I33" t="n">
-        <v>80.35739577318701</v>
+        <v>80.35739577318702</v>
       </c>
       <c r="J33" t="n">
         <v>220.5068359681811</v>
       </c>
       <c r="K33" t="n">
-        <v>376.8813044817103</v>
+        <v>376.8813044817104</v>
       </c>
       <c r="L33" t="n">
-        <v>506.7634239174042</v>
+        <v>506.7634239174043</v>
       </c>
       <c r="M33" t="n">
-        <v>591.3690132250971</v>
+        <v>591.3690132250972</v>
       </c>
       <c r="N33" t="n">
-        <v>607.0207913317472</v>
+        <v>607.0207913317474</v>
       </c>
       <c r="O33" t="n">
-        <v>555.3054329309649</v>
+        <v>555.305432930965</v>
       </c>
       <c r="P33" t="n">
-        <v>445.6815665188555</v>
+        <v>445.6815665188556</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.9263244054566</v>
+        <v>297.9263244054567</v>
       </c>
       <c r="R33" t="n">
         <v>144.9094642758262</v>
       </c>
       <c r="S33" t="n">
-        <v>43.35204727381487</v>
+        <v>43.35204727381488</v>
       </c>
       <c r="T33" t="n">
-        <v>9.407445441472461</v>
+        <v>9.407445441472463</v>
       </c>
       <c r="U33" t="n">
         <v>0.1535491638978096</v>
@@ -33573,25 +33573,25 @@
         <v>17.39686854968102</v>
       </c>
       <c r="I34" t="n">
-        <v>58.84339587151818</v>
+        <v>58.84339587151819</v>
       </c>
       <c r="J34" t="n">
         <v>138.3389025673509</v>
       </c>
       <c r="K34" t="n">
-        <v>227.3333129498192</v>
+        <v>227.3333129498193</v>
       </c>
       <c r="L34" t="n">
         <v>290.9083724555043</v>
       </c>
       <c r="M34" t="n">
-        <v>306.7220903907459</v>
+        <v>306.722090390746</v>
       </c>
       <c r="N34" t="n">
-        <v>299.4289246388349</v>
+        <v>299.428924638835</v>
       </c>
       <c r="O34" t="n">
-        <v>276.5710758797958</v>
+        <v>276.5710758797959</v>
       </c>
       <c r="P34" t="n">
         <v>236.6543345449448</v>
@@ -33600,16 +33600,16 @@
         <v>163.8471944898893</v>
       </c>
       <c r="R34" t="n">
-        <v>87.98048246086117</v>
+        <v>87.98048246086118</v>
       </c>
       <c r="S34" t="n">
         <v>34.09999694247288</v>
       </c>
       <c r="T34" t="n">
-        <v>8.360458300971441</v>
+        <v>8.360458300971443</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1067292549060185</v>
+        <v>0.1067292549060186</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O9" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>99.47650759957429</v>
+        <v>93.66920930151443</v>
       </c>
       <c r="K12" t="n">
         <v>239.0398655073514</v>
@@ -35498,7 +35498,7 @@
         <v>449.2349793030789</v>
       </c>
       <c r="N12" t="n">
-        <v>475.6790792484142</v>
+        <v>481.4863775464739</v>
       </c>
       <c r="O12" t="n">
         <v>412.7091884865206</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.97972245067817</v>
+        <v>44.97972245067814</v>
       </c>
       <c r="K13" t="n">
         <v>205.0638211239364</v>
@@ -35586,7 +35586,7 @@
         <v>233.9328938098383</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.68515123819499</v>
+        <v>77.68515123819496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,10 +35647,10 @@
         <v>358.2813558804701</v>
       </c>
       <c r="K14" t="n">
-        <v>360.7478615818168</v>
+        <v>334.7899137683114</v>
       </c>
       <c r="L14" t="n">
-        <v>870.2722136564914</v>
+        <v>452.610999106041</v>
       </c>
       <c r="M14" t="n">
         <v>535.6062760601653</v>
@@ -35662,10 +35662,10 @@
         <v>504.8722432519022</v>
       </c>
       <c r="P14" t="n">
-        <v>396.0472831662041</v>
+        <v>627.3514548702523</v>
       </c>
       <c r="Q14" t="n">
-        <v>248.7556758673732</v>
+        <v>461.0706665272779</v>
       </c>
       <c r="R14" t="n">
         <v>124.143763176372</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>99.47650759957448</v>
+        <v>93.66920930151443</v>
       </c>
       <c r="K15" t="n">
         <v>239.0398655073514</v>
@@ -35744,7 +35744,7 @@
         <v>311.7071591045254</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.9445503194352</v>
+        <v>163.7518486174954</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.88576233028046</v>
+        <v>46.88576233028056</v>
       </c>
       <c r="K16" t="n">
-        <v>206.9698610035387</v>
+        <v>206.9698610035388</v>
       </c>
       <c r="L16" t="n">
-        <v>320.4044375954228</v>
+        <v>320.4044375954229</v>
       </c>
       <c r="M16" t="n">
-        <v>348.2120072321889</v>
+        <v>348.212007232189</v>
       </c>
       <c r="N16" t="n">
-        <v>345.4671368976659</v>
+        <v>345.467136897666</v>
       </c>
       <c r="O16" t="n">
-        <v>303.0622436734379</v>
+        <v>303.062243673438</v>
       </c>
       <c r="P16" t="n">
-        <v>235.8389336894406</v>
+        <v>235.8389336894407</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.59119111779728</v>
+        <v>79.59119111779739</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.1847407083964</v>
+        <v>358.2813558804701</v>
       </c>
       <c r="K17" t="n">
         <v>334.7899137683114</v>
@@ -35896,10 +35896,10 @@
         <v>548.9333580698121</v>
       </c>
       <c r="O17" t="n">
-        <v>583.4743219565443</v>
+        <v>504.8722432519022</v>
       </c>
       <c r="P17" t="n">
-        <v>717.8459913376867</v>
+        <v>627.3514548702523</v>
       </c>
       <c r="Q17" t="n">
         <v>461.0706665272779</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>99.47650759957448</v>
+        <v>93.66920930151443</v>
       </c>
       <c r="K18" t="n">
         <v>239.0398655073514</v>
       </c>
       <c r="L18" t="n">
-        <v>368.2090441375301</v>
+        <v>374.0163424355902</v>
       </c>
       <c r="M18" t="n">
         <v>449.2349793030789</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.33787017376343</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K19" t="n">
-        <v>252.4219688470217</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L19" t="n">
-        <v>365.8565454389058</v>
+        <v>365.8565454389059</v>
       </c>
       <c r="M19" t="n">
-        <v>393.6641150756718</v>
+        <v>393.6641150756719</v>
       </c>
       <c r="N19" t="n">
-        <v>390.9192447411489</v>
+        <v>390.919244741149</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5143515169209</v>
+        <v>348.5143515169204</v>
       </c>
       <c r="P19" t="n">
-        <v>281.291041532925</v>
+        <v>281.2910415329237</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.0432989612802</v>
+        <v>125.0432989612803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.2813558804701</v>
+        <v>358.28135588047</v>
       </c>
       <c r="K20" t="n">
-        <v>456.6103679607845</v>
+        <v>658.935326339476</v>
       </c>
       <c r="L20" t="n">
-        <v>452.610999106041</v>
+        <v>637.8011687718122</v>
       </c>
       <c r="M20" t="n">
-        <v>535.6062760601653</v>
+        <v>535.6062760601651</v>
       </c>
       <c r="N20" t="n">
-        <v>548.9333580698121</v>
+        <v>548.9333580698119</v>
       </c>
       <c r="O20" t="n">
-        <v>504.8722432519022</v>
+        <v>504.8722432519021</v>
       </c>
       <c r="P20" t="n">
-        <v>717.8459913376867</v>
+        <v>396.047283166204</v>
       </c>
       <c r="Q20" t="n">
-        <v>248.7556758673732</v>
+        <v>248.7556758673731</v>
       </c>
       <c r="R20" t="n">
-        <v>124.143763176372</v>
+        <v>58.42734330338953</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.66920930151443</v>
+        <v>93.66920930151437</v>
       </c>
       <c r="K21" t="n">
-        <v>239.0398655073514</v>
+        <v>239.0398655073513</v>
       </c>
       <c r="L21" t="n">
-        <v>368.2090441375301</v>
+        <v>368.20904413753</v>
       </c>
       <c r="M21" t="n">
-        <v>449.2349793030789</v>
+        <v>449.2349793030788</v>
       </c>
       <c r="N21" t="n">
-        <v>481.4863775464741</v>
+        <v>475.6790792484139</v>
       </c>
       <c r="O21" t="n">
-        <v>412.7091884865206</v>
+        <v>412.7091884865205</v>
       </c>
       <c r="P21" t="n">
-        <v>311.7071591045254</v>
+        <v>311.7071591045253</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.9445503194352</v>
+        <v>157.9445503194351</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.807298298061435</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33787017376352</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K22" t="n">
-        <v>252.4219688470218</v>
+        <v>252.4219688470217</v>
       </c>
       <c r="L22" t="n">
-        <v>365.8565454389059</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M22" t="n">
         <v>393.6641150756719</v>
       </c>
       <c r="N22" t="n">
-        <v>390.919244741149</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O22" t="n">
-        <v>348.5143515169206</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P22" t="n">
-        <v>281.2910415329237</v>
+        <v>281.2910415329236</v>
       </c>
       <c r="Q22" t="n">
         <v>125.0432989612803</v>
@@ -36358,10 +36358,10 @@
         <v>358.2813558804701</v>
       </c>
       <c r="K23" t="n">
-        <v>334.7899137683114</v>
+        <v>490.4370767757151</v>
       </c>
       <c r="L23" t="n">
-        <v>452.610999106041</v>
+        <v>870.2722136564914</v>
       </c>
       <c r="M23" t="n">
         <v>535.6062760601653</v>
@@ -36370,13 +36370,13 @@
         <v>548.9333580698121</v>
       </c>
       <c r="O23" t="n">
-        <v>544.0669219783691</v>
+        <v>504.8722432519022</v>
       </c>
       <c r="P23" t="n">
-        <v>717.8459913376867</v>
+        <v>396.0472831662041</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.0706665272779</v>
+        <v>248.7556758673732</v>
       </c>
       <c r="R23" t="n">
         <v>58.42734330338959</v>
@@ -36455,10 +36455,10 @@
         <v>311.7071591045254</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.9445503194352</v>
+        <v>163.7518486174949</v>
       </c>
       <c r="R24" t="n">
-        <v>5.807298298059598</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33787017376351</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K25" t="n">
         <v>252.4219688470218</v>
       </c>
       <c r="L25" t="n">
-        <v>365.8565454389058</v>
+        <v>365.8565454389059</v>
       </c>
       <c r="M25" t="n">
         <v>393.6641150756719</v>
       </c>
       <c r="N25" t="n">
-        <v>390.9192447411489</v>
+        <v>390.919244741149</v>
       </c>
       <c r="O25" t="n">
         <v>348.514351516921</v>
       </c>
       <c r="P25" t="n">
-        <v>281.2910415329237</v>
+        <v>281.2910415329231</v>
       </c>
       <c r="Q25" t="n">
         <v>125.0432989612803</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>189.1847407083964</v>
+        <v>358.2813558804701</v>
       </c>
       <c r="K26" t="n">
         <v>334.7899137683114</v>
@@ -36607,16 +36607,16 @@
         <v>548.9333580698121</v>
       </c>
       <c r="O26" t="n">
-        <v>504.8722432519022</v>
+        <v>628.6670873169253</v>
       </c>
       <c r="P26" t="n">
-        <v>410.9073318704125</v>
+        <v>396.0472831662041</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.0706665272779</v>
+        <v>248.7556758673732</v>
       </c>
       <c r="R26" t="n">
-        <v>124.143763176372</v>
+        <v>58.42734330338959</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.66920930151443</v>
+        <v>99.47650759957425</v>
       </c>
       <c r="K27" t="n">
         <v>239.0398655073514</v>
@@ -36689,7 +36689,7 @@
         <v>412.7091884865206</v>
       </c>
       <c r="P27" t="n">
-        <v>317.5144574025852</v>
+        <v>311.7071591045254</v>
       </c>
       <c r="Q27" t="n">
         <v>157.9445503194352</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.33787017376349</v>
+        <v>92.33787017376352</v>
       </c>
       <c r="K28" t="n">
         <v>252.4219688470218</v>
       </c>
       <c r="L28" t="n">
-        <v>365.8565454389058</v>
+        <v>365.8565454389059</v>
       </c>
       <c r="M28" t="n">
         <v>393.6641150756719</v>
       </c>
       <c r="N28" t="n">
-        <v>390.9192447411489</v>
+        <v>390.919244741149</v>
       </c>
       <c r="O28" t="n">
-        <v>348.5143515169209</v>
+        <v>348.514351516921</v>
       </c>
       <c r="P28" t="n">
         <v>281.2910415329237</v>
@@ -36832,10 +36832,10 @@
         <v>189.1847407083964</v>
       </c>
       <c r="K29" t="n">
-        <v>658.9353263394761</v>
+        <v>334.7899137683114</v>
       </c>
       <c r="L29" t="n">
-        <v>452.610999106041</v>
+        <v>870.2722136564914</v>
       </c>
       <c r="M29" t="n">
         <v>535.6062760601653</v>
@@ -36844,13 +36844,13 @@
         <v>548.9333580698121</v>
       </c>
       <c r="O29" t="n">
-        <v>885.6724245146476</v>
+        <v>856.8423843682586</v>
       </c>
       <c r="P29" t="n">
         <v>396.0472831662041</v>
       </c>
       <c r="Q29" t="n">
-        <v>313.4414377002684</v>
+        <v>248.7556758673732</v>
       </c>
       <c r="R29" t="n">
         <v>58.42734330338959</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>93.66920930151443</v>
+        <v>99.47650759957423</v>
       </c>
       <c r="K30" t="n">
         <v>239.0398655073514</v>
@@ -36932,7 +36932,7 @@
         <v>157.9445503194352</v>
       </c>
       <c r="R30" t="n">
-        <v>5.807298298059598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>90.43183029416113</v>
+        <v>90.4318302941611</v>
       </c>
       <c r="K31" t="n">
         <v>250.5159289674194</v>
@@ -37002,13 +37002,13 @@
         <v>389.0132048615466</v>
       </c>
       <c r="O31" t="n">
-        <v>346.6083116373186</v>
+        <v>346.6083116373185</v>
       </c>
       <c r="P31" t="n">
-        <v>279.3850016533213</v>
+        <v>279.3850016533212</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.137259081678</v>
+        <v>123.1372590816779</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>358.28135588047</v>
+        <v>189.1847407083964</v>
       </c>
       <c r="K32" t="n">
-        <v>334.7899137683112</v>
+        <v>334.7899137683114</v>
       </c>
       <c r="L32" t="n">
-        <v>452.6109991060409</v>
+        <v>452.610999106041</v>
       </c>
       <c r="M32" t="n">
-        <v>535.6062760601651</v>
+        <v>535.6062760601653</v>
       </c>
       <c r="N32" t="n">
-        <v>548.9333580698119</v>
+        <v>910.5381695369963</v>
       </c>
       <c r="O32" t="n">
-        <v>504.8722432519021</v>
+        <v>885.6724245146476</v>
       </c>
       <c r="P32" t="n">
-        <v>691.324250191172</v>
+        <v>396.0472831662041</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.0706665272778</v>
+        <v>248.7556758673732</v>
       </c>
       <c r="R32" t="n">
-        <v>124.143763176372</v>
+        <v>58.42734330338959</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>99.47650759957554</v>
+        <v>93.66920930151443</v>
       </c>
       <c r="K33" t="n">
-        <v>239.0398655073513</v>
+        <v>239.0398655073514</v>
       </c>
       <c r="L33" t="n">
-        <v>368.20904413753</v>
+        <v>368.2090441375301</v>
       </c>
       <c r="M33" t="n">
-        <v>449.2349793030788</v>
+        <v>449.2349793030789</v>
       </c>
       <c r="N33" t="n">
-        <v>475.6790792484139</v>
+        <v>475.6790792484142</v>
       </c>
       <c r="O33" t="n">
-        <v>412.7091884865205</v>
+        <v>418.5164867845802</v>
       </c>
       <c r="P33" t="n">
-        <v>311.7071591045253</v>
+        <v>311.7071591045254</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.9445503194351</v>
+        <v>157.9445503194352</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33787017376352</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K34" t="n">
         <v>252.4219688470218</v>
@@ -37321,10 +37321,10 @@
         <v>504.8722432519022</v>
       </c>
       <c r="P35" t="n">
-        <v>691.324250191171</v>
+        <v>717.8459913376867</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.0706665272779</v>
+        <v>434.5489253807633</v>
       </c>
       <c r="R35" t="n">
         <v>124.143763176372</v>
@@ -37397,7 +37397,7 @@
         <v>475.6790792484142</v>
       </c>
       <c r="O36" t="n">
-        <v>412.7091884865206</v>
+        <v>418.5164867845802</v>
       </c>
       <c r="P36" t="n">
         <v>311.7071591045254</v>
@@ -37406,7 +37406,7 @@
         <v>157.9445503194352</v>
       </c>
       <c r="R36" t="n">
-        <v>5.807298298059598</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.33787017376348</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K37" t="n">
-        <v>252.4219688470217</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L37" t="n">
         <v>365.8565454389058</v>
@@ -37543,13 +37543,13 @@
         <v>358.2813558804701</v>
       </c>
       <c r="K38" t="n">
-        <v>334.7899137683114</v>
+        <v>658.9353263394761</v>
       </c>
       <c r="L38" t="n">
         <v>452.610999106041</v>
       </c>
       <c r="M38" t="n">
-        <v>985.1198095529978</v>
+        <v>535.6062760601653</v>
       </c>
       <c r="N38" t="n">
         <v>548.9333580698121</v>
@@ -37561,7 +37561,7 @@
         <v>396.0472831662041</v>
       </c>
       <c r="Q38" t="n">
-        <v>306.8341000594129</v>
+        <v>432.2022209810808</v>
       </c>
       <c r="R38" t="n">
         <v>124.143763176372</v>
@@ -37640,10 +37640,10 @@
         <v>311.7071591045254</v>
       </c>
       <c r="Q39" t="n">
-        <v>157.9445503194352</v>
+        <v>163.7518486174949</v>
       </c>
       <c r="R39" t="n">
-        <v>5.807298298059598</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33787017376349</v>
+        <v>92.33787017376348</v>
       </c>
       <c r="K40" t="n">
-        <v>252.4219688470218</v>
+        <v>252.4219688470217</v>
       </c>
       <c r="L40" t="n">
         <v>365.8565454389058</v>
@@ -37719,7 +37719,7 @@
         <v>281.2910415329237</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.0432989612803</v>
+        <v>125.0432989612809</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>358.2813558804701</v>
       </c>
       <c r="K41" t="n">
-        <v>334.7899137683114</v>
+        <v>630.0668807932791</v>
       </c>
       <c r="L41" t="n">
         <v>452.610999106041</v>
@@ -37795,7 +37795,7 @@
         <v>504.8722432519022</v>
       </c>
       <c r="P41" t="n">
-        <v>691.324250191171</v>
+        <v>396.0472831662041</v>
       </c>
       <c r="Q41" t="n">
         <v>461.0706665272779</v>
@@ -37877,10 +37877,10 @@
         <v>311.7071591045254</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.9445503194352</v>
+        <v>163.7518486174949</v>
       </c>
       <c r="R42" t="n">
-        <v>5.807298298059598</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.33787017376346</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K43" t="n">
-        <v>252.4219688470217</v>
+        <v>252.4219688470218</v>
       </c>
       <c r="L43" t="n">
         <v>365.8565454389058</v>
@@ -38017,10 +38017,10 @@
         <v>358.2813558804701</v>
       </c>
       <c r="K44" t="n">
-        <v>334.7899137683114</v>
+        <v>658.9353263394761</v>
       </c>
       <c r="L44" t="n">
-        <v>452.610999106041</v>
+        <v>636.0575442197493</v>
       </c>
       <c r="M44" t="n">
         <v>535.6062760601653</v>
@@ -38032,10 +38032,10 @@
         <v>504.8722432519022</v>
       </c>
       <c r="P44" t="n">
-        <v>691.324250191171</v>
+        <v>396.0472831662041</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.0706665272779</v>
+        <v>248.7556758673732</v>
       </c>
       <c r="R44" t="n">
         <v>124.143763176372</v>
@@ -38099,7 +38099,7 @@
         <v>239.0398655073514</v>
       </c>
       <c r="L45" t="n">
-        <v>368.2090441375301</v>
+        <v>374.0163424355899</v>
       </c>
       <c r="M45" t="n">
         <v>449.2349793030789</v>
@@ -38111,7 +38111,7 @@
         <v>412.7091884865206</v>
       </c>
       <c r="P45" t="n">
-        <v>317.5144574025852</v>
+        <v>311.7071591045254</v>
       </c>
       <c r="Q45" t="n">
         <v>157.9445503194352</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.3378701737627</v>
+        <v>92.33787017376349</v>
       </c>
       <c r="K46" t="n">
-        <v>252.4219688470218</v>
+        <v>252.4219688470222</v>
       </c>
       <c r="L46" t="n">
-        <v>365.8565454389059</v>
+        <v>365.8565454389058</v>
       </c>
       <c r="M46" t="n">
         <v>393.6641150756719</v>
       </c>
       <c r="N46" t="n">
-        <v>390.919244741149</v>
+        <v>390.9192447411489</v>
       </c>
       <c r="O46" t="n">
-        <v>348.514351516921</v>
+        <v>348.5143515169209</v>
       </c>
       <c r="P46" t="n">
         <v>281.2910415329237</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.0432989612804</v>
+        <v>125.0432989612803</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
